--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2303801.383009315</v>
+        <v>-2305691.642640201</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4947975.24900945</v>
+        <v>4947975.249009453</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>310.7179820765714</v>
+        <v>310.7179820765713</v>
       </c>
       <c r="C11" t="n">
-        <v>293.2570321840984</v>
+        <v>58.80017719411067</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>282.6671820337737</v>
       </c>
       <c r="E11" t="n">
-        <v>309.9145104853526</v>
+        <v>309.9145104853525</v>
       </c>
       <c r="F11" t="n">
         <v>334.8601861548022</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>340.5438680270942</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.7101407701211</v>
+        <v>32.71014077012104</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>74.49787187730007</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>16.54108210202625</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>297.7152410915598</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>314.2220790691444</v>
+        <v>314.2220790691443</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>94.51732406295817</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>100.6926394014065</v>
       </c>
       <c r="D12" t="n">
-        <v>143.1511252590782</v>
+        <v>75.42920597772952</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>114.4850841504561</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1464,10 +1464,10 @@
         <v>135.8758774788458</v>
       </c>
       <c r="H12" t="n">
-        <v>98.06113465328821</v>
+        <v>26.04527506637897</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.86605599937836</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>144.422407668376</v>
       </c>
       <c r="T12" t="n">
-        <v>122.2332512573364</v>
+        <v>194.2491108442456</v>
       </c>
       <c r="U12" t="n">
         <v>153.8289672516732</v>
       </c>
       <c r="V12" t="n">
-        <v>160.7847275625161</v>
+        <v>160.784727562516</v>
       </c>
       <c r="W12" t="n">
         <v>179.6791235740104</v>
       </c>
       <c r="X12" t="n">
-        <v>133.7571256165683</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>133.6668361903952</v>
+        <v>133.6668361903951</v>
       </c>
     </row>
     <row r="13">
@@ -1528,25 +1528,25 @@
         <v>107.8161205950281</v>
       </c>
       <c r="C13" t="n">
-        <v>95.23096151171866</v>
+        <v>95.2309615117186</v>
       </c>
       <c r="D13" t="n">
-        <v>76.59961343130318</v>
+        <v>76.59961343130313</v>
       </c>
       <c r="E13" t="n">
-        <v>74.41810305966</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>73.40518843602207</v>
+        <v>73.40518843602202</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>23.81201425807287</v>
       </c>
       <c r="H13" t="n">
-        <v>79.27176224475106</v>
+        <v>79.27176224475099</v>
       </c>
       <c r="I13" t="n">
-        <v>46.43253595846967</v>
+        <v>46.43253595846961</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>49.95338287164616</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>130.557876849379</v>
@@ -1585,16 +1585,16 @@
         <v>214.2360559617548</v>
       </c>
       <c r="V13" t="n">
-        <v>79.56231206368368</v>
+        <v>180.1217837369188</v>
       </c>
       <c r="W13" t="n">
         <v>214.5071387496818</v>
       </c>
       <c r="X13" t="n">
-        <v>153.693795802128</v>
+        <v>153.6937958021279</v>
       </c>
       <c r="Y13" t="n">
-        <v>146.5687937651856</v>
+        <v>146.5687937651855</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>310.7179820765714</v>
+        <v>310.7179820765713</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>282.6671820337738</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>309.9145104853525</v>
       </c>
       <c r="F14" t="n">
-        <v>334.8601861548022</v>
+        <v>302.9287928301408</v>
       </c>
       <c r="G14" t="n">
-        <v>340.5438680270943</v>
+        <v>340.5438680270942</v>
       </c>
       <c r="H14" t="n">
-        <v>239.3670923788941</v>
+        <v>239.367092378894</v>
       </c>
       <c r="I14" t="n">
-        <v>32.7101407701211</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>74.49787187730007</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>139.0724641350186</v>
       </c>
       <c r="U14" t="n">
-        <v>179.1103525288368</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>255.7363988832257</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>28.20152128949661</v>
+        <v>277.2251091305038</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>297.7152410915598</v>
       </c>
       <c r="Y14" t="n">
-        <v>314.2220790691444</v>
+        <v>314.2220790691443</v>
       </c>
     </row>
     <row r="15">
@@ -1695,7 +1695,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933837</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>135.8758774788458</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>43.06982580978271</v>
       </c>
       <c r="C16" t="n">
-        <v>7.742910472121193</v>
+        <v>95.2309615117186</v>
       </c>
       <c r="D16" t="n">
-        <v>76.59961343130318</v>
+        <v>76.59961343130313</v>
       </c>
       <c r="E16" t="n">
-        <v>74.41810305966</v>
+        <v>74.41810305965994</v>
       </c>
       <c r="F16" t="n">
-        <v>73.40518843602207</v>
+        <v>73.40518843602202</v>
       </c>
       <c r="G16" t="n">
-        <v>94.74469996139035</v>
+        <v>94.74469996139031</v>
       </c>
       <c r="H16" t="n">
-        <v>79.27176224475105</v>
+        <v>79.271762244751</v>
       </c>
       <c r="I16" t="n">
-        <v>46.43253595846967</v>
+        <v>46.43253595846961</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>49.95338287164616</v>
+        <v>49.9533828716461</v>
       </c>
       <c r="S16" t="n">
-        <v>130.557876849379</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>150.672481561601</v>
       </c>
       <c r="U16" t="n">
-        <v>214.2360559617549</v>
+        <v>214.2360559617548</v>
       </c>
       <c r="V16" t="n">
         <v>180.1217837369188</v>
@@ -1828,10 +1828,10 @@
         <v>214.5071387496818</v>
       </c>
       <c r="X16" t="n">
-        <v>153.693795802128</v>
+        <v>153.6937958021279</v>
       </c>
       <c r="Y16" t="n">
-        <v>146.5687937651856</v>
+        <v>146.5687937651855</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.5101083108332</v>
+        <v>230.5101083108331</v>
       </c>
       <c r="C17" t="n">
-        <v>213.0491584183602</v>
+        <v>213.0491584183601</v>
       </c>
       <c r="D17" t="n">
-        <v>202.4593082680356</v>
+        <v>202.4593082680355</v>
       </c>
       <c r="E17" t="n">
         <v>229.7066367196144</v>
       </c>
       <c r="F17" t="n">
-        <v>254.6523123890641</v>
+        <v>254.652312389064</v>
       </c>
       <c r="G17" t="n">
         <v>260.3359942613561</v>
       </c>
       <c r="H17" t="n">
-        <v>159.1592186131559</v>
+        <v>159.1592186131558</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>58.86459036928048</v>
+        <v>58.86459036928039</v>
       </c>
       <c r="U17" t="n">
-        <v>98.90247876309863</v>
+        <v>98.90247876309854</v>
       </c>
       <c r="V17" t="n">
-        <v>175.5285251174876</v>
+        <v>175.5285251174875</v>
       </c>
       <c r="W17" t="n">
-        <v>197.0172353647657</v>
+        <v>197.0172353647656</v>
       </c>
       <c r="X17" t="n">
-        <v>217.5073673258217</v>
+        <v>217.5073673258216</v>
       </c>
       <c r="Y17" t="n">
         <v>234.0142053034062</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.60824682928995</v>
+        <v>27.60824682928987</v>
       </c>
       <c r="C19" t="n">
-        <v>15.02308774598049</v>
+        <v>15.0230877459804</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>143.9874998678775</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>153.091938046101</v>
+        <v>14.5368261956521</v>
       </c>
       <c r="H19" t="n">
-        <v>151.2876218316602</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.368499538415122</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>202.5737364362882</v>
+        <v>50.35000308364077</v>
       </c>
       <c r="T19" t="n">
-        <v>70.46460779586289</v>
+        <v>70.4646077958628</v>
       </c>
       <c r="U19" t="n">
-        <v>134.0281821960167</v>
+        <v>286.251915548664</v>
       </c>
       <c r="V19" t="n">
-        <v>99.91390997118066</v>
+        <v>99.91390997118057</v>
       </c>
       <c r="W19" t="n">
-        <v>134.2992649839437</v>
+        <v>134.2992649839436</v>
       </c>
       <c r="X19" t="n">
-        <v>73.48592203638981</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.36091999944745</v>
+        <v>66.36091999944736</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>230.5101083108332</v>
       </c>
       <c r="C20" t="n">
-        <v>213.0491584183592</v>
+        <v>213.0491584183602</v>
       </c>
       <c r="D20" t="n">
         <v>202.4593082680356</v>
@@ -2090,7 +2090,7 @@
         <v>229.7066367196144</v>
       </c>
       <c r="F20" t="n">
-        <v>254.6523123890641</v>
+        <v>254.652312389064</v>
       </c>
       <c r="G20" t="n">
         <v>260.3359942613561</v>
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>58.86459036928048</v>
+        <v>58.86459036928042</v>
       </c>
       <c r="U20" t="n">
-        <v>98.90247876309863</v>
+        <v>98.90247876309857</v>
       </c>
       <c r="V20" t="n">
-        <v>175.5285251174876</v>
+        <v>175.5285251174875</v>
       </c>
       <c r="W20" t="n">
-        <v>197.0172353647657</v>
+        <v>197.0172353647656</v>
       </c>
       <c r="X20" t="n">
-        <v>217.5073673258217</v>
+        <v>217.5073673258216</v>
       </c>
       <c r="Y20" t="n">
         <v>234.0142053034062</v>
@@ -2172,7 +2172,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8758774788458</v>
+        <v>135.8758774788456</v>
       </c>
       <c r="H21" t="n">
         <v>98.06113465328821</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.60824682928995</v>
+        <v>27.6082468292899</v>
       </c>
       <c r="C22" t="n">
-        <v>15.02308774598049</v>
+        <v>15.02308774598043</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,16 +2251,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>153.091938046101</v>
+        <v>166.7605595482995</v>
       </c>
       <c r="H22" t="n">
-        <v>151.2876218316602</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.368499538415122</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.35000308364086</v>
+        <v>50.3500030836408</v>
       </c>
       <c r="T22" t="n">
-        <v>70.46460779586289</v>
+        <v>222.6883411485102</v>
       </c>
       <c r="U22" t="n">
-        <v>134.0281821960167</v>
+        <v>134.0281821960166</v>
       </c>
       <c r="V22" t="n">
-        <v>99.91390997118066</v>
+        <v>99.9139099711806</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>134.2992649839436</v>
       </c>
       <c r="X22" t="n">
-        <v>73.48592203638981</v>
+        <v>73.48592203638975</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.36091999944745</v>
+        <v>210.3484198673246</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>229.7066367196144</v>
       </c>
       <c r="F23" t="n">
-        <v>254.6523123890641</v>
+        <v>254.652312389064</v>
       </c>
       <c r="G23" t="n">
         <v>260.3359942613561</v>
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>58.86459036928048</v>
+        <v>58.86459036928042</v>
       </c>
       <c r="U23" t="n">
-        <v>98.90247876309863</v>
+        <v>98.90247876309857</v>
       </c>
       <c r="V23" t="n">
-        <v>175.5285251174876</v>
+        <v>175.5285251174875</v>
       </c>
       <c r="W23" t="n">
-        <v>197.0172353647657</v>
+        <v>197.0172353647656</v>
       </c>
       <c r="X23" t="n">
-        <v>217.5073673258217</v>
+        <v>217.5073673258216</v>
       </c>
       <c r="Y23" t="n">
         <v>234.0142053034062</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.60824682928995</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>15.02308774598049</v>
+        <v>15.02308774598043</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>137.6190003294622</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.53682619565218</v>
+        <v>14.53682619565213</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.368499538415122</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.35000308364086</v>
+        <v>50.3500030836408</v>
       </c>
       <c r="T25" t="n">
-        <v>70.46460779586289</v>
+        <v>70.46460779586283</v>
       </c>
       <c r="U25" t="n">
-        <v>286.251915548664</v>
+        <v>134.0281821960166</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>134.2992649839437</v>
+        <v>134.2992649839436</v>
       </c>
       <c r="X25" t="n">
-        <v>217.4734219042666</v>
+        <v>73.48592203638975</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.36091999944745</v>
+        <v>66.36091999944739</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.1750782000651</v>
       </c>
       <c r="I26" t="n">
-        <v>24.51812659129212</v>
+        <v>24.51812659129213</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>98.06113465328821</v>
       </c>
       <c r="I27" t="n">
-        <v>38.86605599937836</v>
+        <v>38.86605599937837</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.035433398830151</v>
+        <v>9.035433398830165</v>
       </c>
       <c r="S27" t="n">
         <v>144.422407668376</v>
@@ -2731,7 +2731,7 @@
         <v>71.07974806592205</v>
       </c>
       <c r="I28" t="n">
-        <v>38.24052177964067</v>
+        <v>38.24052177964068</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76136869281716</v>
+        <v>41.76136869281717</v>
       </c>
       <c r="S28" t="n">
-        <v>122.36586267055</v>
+        <v>122.3658626705501</v>
       </c>
       <c r="T28" t="n">
         <v>142.4804673827721</v>
@@ -2795,13 +2795,13 @@
         <v>285.0650180052694</v>
       </c>
       <c r="D29" t="n">
-        <v>274.4751678549447</v>
+        <v>274.4751678549448</v>
       </c>
       <c r="E29" t="n">
         <v>301.7224963065236</v>
       </c>
       <c r="F29" t="n">
-        <v>326.6681719759732</v>
+        <v>326.6681719759733</v>
       </c>
       <c r="G29" t="n">
         <v>332.3518538482653</v>
@@ -2810,7 +2810,7 @@
         <v>231.1750782000651</v>
       </c>
       <c r="I29" t="n">
-        <v>24.51812659129213</v>
+        <v>24.51812659129212</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.30585769847107</v>
+        <v>66.30585769847104</v>
       </c>
       <c r="T29" t="n">
-        <v>130.8804499561896</v>
+        <v>130.8804499561897</v>
       </c>
       <c r="U29" t="n">
         <v>170.9183383500078</v>
@@ -2852,10 +2852,10 @@
         <v>247.5443847043967</v>
       </c>
       <c r="W29" t="n">
-        <v>269.0330949516748</v>
+        <v>269.0330949516749</v>
       </c>
       <c r="X29" t="n">
-        <v>289.5232269127308</v>
+        <v>289.5232269127309</v>
       </c>
       <c r="Y29" t="n">
         <v>306.0300648903154</v>
@@ -2889,7 +2889,7 @@
         <v>98.06113465328821</v>
       </c>
       <c r="I30" t="n">
-        <v>38.86605599937838</v>
+        <v>38.86605599937836</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.035433398830179</v>
+        <v>9.035433398830151</v>
       </c>
       <c r="S30" t="n">
         <v>144.422407668376</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.62410641619911</v>
+        <v>99.62410641619913</v>
       </c>
       <c r="C31" t="n">
-        <v>87.03894733288965</v>
+        <v>87.03894733288966</v>
       </c>
       <c r="D31" t="n">
-        <v>68.40759925247417</v>
+        <v>68.40759925247418</v>
       </c>
       <c r="E31" t="n">
-        <v>66.22608888083099</v>
+        <v>66.226088880831</v>
       </c>
       <c r="F31" t="n">
-        <v>65.21317425719306</v>
+        <v>65.21317425719307</v>
       </c>
       <c r="G31" t="n">
-        <v>86.55268578256135</v>
+        <v>86.55268578256137</v>
       </c>
       <c r="H31" t="n">
         <v>71.07974806592205</v>
@@ -3001,7 +3001,7 @@
         <v>122.36586267055</v>
       </c>
       <c r="T31" t="n">
-        <v>142.480467382772</v>
+        <v>142.4804673827721</v>
       </c>
       <c r="U31" t="n">
         <v>206.0440417829259</v>
@@ -3010,7 +3010,7 @@
         <v>171.9297695580898</v>
       </c>
       <c r="W31" t="n">
-        <v>206.3151245708528</v>
+        <v>206.3151245708539</v>
       </c>
       <c r="X31" t="n">
         <v>145.501781623299</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>302.5259678977425</v>
+        <v>302.5259678977424</v>
       </c>
       <c r="C32" t="n">
-        <v>285.0650180052695</v>
+        <v>285.0650180052694</v>
       </c>
       <c r="D32" t="n">
-        <v>274.4751678549449</v>
+        <v>274.4751678549448</v>
       </c>
       <c r="E32" t="n">
-        <v>301.7224963065237</v>
+        <v>301.7224963065236</v>
       </c>
       <c r="F32" t="n">
         <v>326.6681719759733</v>
       </c>
       <c r="G32" t="n">
-        <v>332.3518538482654</v>
+        <v>332.3518538482653</v>
       </c>
       <c r="H32" t="n">
-        <v>231.1750782000652</v>
+        <v>231.1750782000651</v>
       </c>
       <c r="I32" t="n">
-        <v>24.51812659129217</v>
+        <v>24.51812659129214</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.30585769847112</v>
+        <v>66.3058576984711</v>
       </c>
       <c r="T32" t="n">
         <v>130.8804499561897</v>
@@ -3086,7 +3086,7 @@
         <v>170.9183383500078</v>
       </c>
       <c r="V32" t="n">
-        <v>247.5443847043968</v>
+        <v>247.5443847043967</v>
       </c>
       <c r="W32" t="n">
         <v>269.0330949516749</v>
@@ -3095,7 +3095,7 @@
         <v>289.5232269127309</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.0300648903155</v>
+        <v>306.0300648903154</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.62410641619918</v>
+        <v>99.62410641619915</v>
       </c>
       <c r="C34" t="n">
-        <v>87.03894733288972</v>
+        <v>87.03894733288969</v>
       </c>
       <c r="D34" t="n">
-        <v>68.40759925247424</v>
+        <v>68.40759925247421</v>
       </c>
       <c r="E34" t="n">
-        <v>66.22608888083106</v>
+        <v>66.22608888083103</v>
       </c>
       <c r="F34" t="n">
-        <v>65.21317425719313</v>
+        <v>65.2131742571931</v>
       </c>
       <c r="G34" t="n">
-        <v>86.55268578256143</v>
+        <v>86.5526857825614</v>
       </c>
       <c r="H34" t="n">
-        <v>71.07974806592212</v>
+        <v>71.07974806592208</v>
       </c>
       <c r="I34" t="n">
-        <v>38.24052177964073</v>
+        <v>38.2405217796407</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76136869281721</v>
+        <v>41.76136869281719</v>
       </c>
       <c r="S34" t="n">
-        <v>122.3658626705501</v>
+        <v>122.36586267055</v>
       </c>
       <c r="T34" t="n">
         <v>142.4804673827721</v>
@@ -3244,16 +3244,16 @@
         <v>206.0440417829259</v>
       </c>
       <c r="V34" t="n">
-        <v>171.9297695580899</v>
+        <v>171.9297695580898</v>
       </c>
       <c r="W34" t="n">
-        <v>206.3151245708529</v>
+        <v>206.3151245708528</v>
       </c>
       <c r="X34" t="n">
-        <v>145.5017816232991</v>
+        <v>145.501781623299</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.3767795863567</v>
+        <v>138.3767795863566</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302.5259678977424</v>
+        <v>302.5259678977425</v>
       </c>
       <c r="C35" t="n">
         <v>285.0650180052694</v>
       </c>
       <c r="D35" t="n">
-        <v>274.4751678549448</v>
+        <v>274.4751678549449</v>
       </c>
       <c r="E35" t="n">
-        <v>301.7224963065236</v>
+        <v>301.7224963065237</v>
       </c>
       <c r="F35" t="n">
         <v>326.6681719759733</v>
       </c>
       <c r="G35" t="n">
-        <v>332.3518538482653</v>
+        <v>332.3518538482654</v>
       </c>
       <c r="H35" t="n">
         <v>231.1750782000651</v>
       </c>
       <c r="I35" t="n">
-        <v>24.51812659129214</v>
+        <v>24.51812659129216</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.30585769847109</v>
+        <v>66.3058576984711</v>
       </c>
       <c r="T35" t="n">
         <v>130.8804499561897</v>
@@ -3323,7 +3323,7 @@
         <v>170.9183383500078</v>
       </c>
       <c r="V35" t="n">
-        <v>247.5443847043967</v>
+        <v>247.5443847043968</v>
       </c>
       <c r="W35" t="n">
         <v>269.0330949516749</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.62410641619915</v>
+        <v>99.62410641619917</v>
       </c>
       <c r="C37" t="n">
-        <v>87.03894733288969</v>
+        <v>87.03894733288971</v>
       </c>
       <c r="D37" t="n">
-        <v>68.40759925247421</v>
+        <v>68.40759925247423</v>
       </c>
       <c r="E37" t="n">
-        <v>66.22608888083103</v>
+        <v>66.22608888083104</v>
       </c>
       <c r="F37" t="n">
-        <v>65.2131742571931</v>
+        <v>65.21317425719312</v>
       </c>
       <c r="G37" t="n">
-        <v>86.5526857825614</v>
+        <v>86.55268578256141</v>
       </c>
       <c r="H37" t="n">
-        <v>71.07974806592209</v>
+        <v>71.0797480659221</v>
       </c>
       <c r="I37" t="n">
-        <v>38.2405217796407</v>
+        <v>38.24052177964072</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.76136869281719</v>
+        <v>41.7613686928172</v>
       </c>
       <c r="S37" t="n">
         <v>122.3658626705501</v>
@@ -3481,16 +3481,16 @@
         <v>206.0440417829259</v>
       </c>
       <c r="V37" t="n">
-        <v>171.9297695580898</v>
+        <v>171.9297695580899</v>
       </c>
       <c r="W37" t="n">
-        <v>206.3151245708528</v>
+        <v>206.3151245708529</v>
       </c>
       <c r="X37" t="n">
         <v>145.501781623299</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.3767795863566</v>
+        <v>138.3767795863567</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>302.5259678977425</v>
       </c>
       <c r="C38" t="n">
-        <v>285.0650180052695</v>
+        <v>285.0650180052694</v>
       </c>
       <c r="D38" t="n">
         <v>274.4751678549449</v>
@@ -3518,10 +3518,10 @@
         <v>332.3518538482654</v>
       </c>
       <c r="H38" t="n">
-        <v>231.1750782000652</v>
+        <v>231.1750782000651</v>
       </c>
       <c r="I38" t="n">
-        <v>24.5181265912922</v>
+        <v>24.51812659129216</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.30585769847114</v>
+        <v>66.3058576984711</v>
       </c>
       <c r="T38" t="n">
-        <v>130.8804499561898</v>
+        <v>130.8804499561897</v>
       </c>
       <c r="U38" t="n">
-        <v>170.9183383500079</v>
+        <v>170.9183383500078</v>
       </c>
       <c r="V38" t="n">
         <v>247.5443847043968</v>
@@ -3569,7 +3569,7 @@
         <v>289.5232269127309</v>
       </c>
       <c r="Y38" t="n">
-        <v>306.0300648903155</v>
+        <v>306.0300648903154</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.62410641619921</v>
+        <v>99.62410641619917</v>
       </c>
       <c r="C40" t="n">
-        <v>87.03894733288975</v>
+        <v>87.03894733288971</v>
       </c>
       <c r="D40" t="n">
-        <v>68.40759925247427</v>
+        <v>68.40759925247423</v>
       </c>
       <c r="E40" t="n">
-        <v>66.22608888083109</v>
+        <v>66.22608888083104</v>
       </c>
       <c r="F40" t="n">
-        <v>65.21317425719316</v>
+        <v>65.21317425719312</v>
       </c>
       <c r="G40" t="n">
-        <v>86.55268578256144</v>
+        <v>86.5526857825614</v>
       </c>
       <c r="H40" t="n">
-        <v>71.07974806592213</v>
+        <v>71.07974806592209</v>
       </c>
       <c r="I40" t="n">
-        <v>38.24052177964076</v>
+        <v>38.24052177964072</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.76136869281725</v>
+        <v>41.76136869281721</v>
       </c>
       <c r="S40" t="n">
         <v>122.3658626705501</v>
@@ -3724,7 +3724,7 @@
         <v>206.3151245708529</v>
       </c>
       <c r="X40" t="n">
-        <v>145.5017816232991</v>
+        <v>145.501781623299</v>
       </c>
       <c r="Y40" t="n">
         <v>138.3767795863567</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>302.5259678977425</v>
+        <v>302.5259678977424</v>
       </c>
       <c r="C41" t="n">
-        <v>285.0650180052695</v>
+        <v>285.0650180052693</v>
       </c>
       <c r="D41" t="n">
-        <v>274.4751678549449</v>
+        <v>274.4751678549447</v>
       </c>
       <c r="E41" t="n">
-        <v>301.7224963065237</v>
+        <v>301.7224963065236</v>
       </c>
       <c r="F41" t="n">
-        <v>326.6681719759733</v>
+        <v>326.6681719759732</v>
       </c>
       <c r="G41" t="n">
-        <v>332.3518538482654</v>
+        <v>332.3518538482653</v>
       </c>
       <c r="H41" t="n">
-        <v>231.1750782000652</v>
+        <v>231.1750782000651</v>
       </c>
       <c r="I41" t="n">
-        <v>24.51812659129217</v>
+        <v>24.51812659129209</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.30585769847112</v>
+        <v>66.30585769847104</v>
       </c>
       <c r="T41" t="n">
-        <v>130.8804499561897</v>
+        <v>130.8804499561896</v>
       </c>
       <c r="U41" t="n">
         <v>170.9183383500078</v>
       </c>
       <c r="V41" t="n">
-        <v>247.5443847043968</v>
+        <v>247.5443847043967</v>
       </c>
       <c r="W41" t="n">
-        <v>269.0330949516749</v>
+        <v>269.0330949516748</v>
       </c>
       <c r="X41" t="n">
-        <v>289.5232269127309</v>
+        <v>289.5232269127308</v>
       </c>
       <c r="Y41" t="n">
-        <v>306.0300648903155</v>
+        <v>306.0300648903154</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.62410641619918</v>
+        <v>99.6241064161991</v>
       </c>
       <c r="C43" t="n">
-        <v>87.03894733288972</v>
+        <v>87.03894733288963</v>
       </c>
       <c r="D43" t="n">
-        <v>68.40759925247424</v>
+        <v>68.40759925247416</v>
       </c>
       <c r="E43" t="n">
-        <v>66.22608888083106</v>
+        <v>66.22608888083097</v>
       </c>
       <c r="F43" t="n">
-        <v>65.21317425719313</v>
+        <v>65.21317425719305</v>
       </c>
       <c r="G43" t="n">
-        <v>86.55268578256141</v>
+        <v>86.55268578256133</v>
       </c>
       <c r="H43" t="n">
-        <v>71.0797480659221</v>
+        <v>71.07974806592202</v>
       </c>
       <c r="I43" t="n">
-        <v>38.24052177964073</v>
+        <v>38.24052177964064</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.76136869281722</v>
+        <v>41.76136869281714</v>
       </c>
       <c r="S43" t="n">
-        <v>122.3658626705501</v>
+        <v>122.36586267055</v>
       </c>
       <c r="T43" t="n">
-        <v>142.4804673827721</v>
+        <v>142.480467382772</v>
       </c>
       <c r="U43" t="n">
-        <v>206.0440417829259</v>
+        <v>206.0440417829258</v>
       </c>
       <c r="V43" t="n">
-        <v>171.9297695580899</v>
+        <v>171.9297695580898</v>
       </c>
       <c r="W43" t="n">
-        <v>206.3151245708529</v>
+        <v>206.3151245708528</v>
       </c>
       <c r="X43" t="n">
-        <v>145.5017816232991</v>
+        <v>145.5017816232989</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.3767795863567</v>
+        <v>138.3767795863566</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>302.5259678977425</v>
+        <v>302.5259678977424</v>
       </c>
       <c r="C44" t="n">
-        <v>285.0650180052695</v>
+        <v>285.0650180052693</v>
       </c>
       <c r="D44" t="n">
-        <v>274.4751678549449</v>
+        <v>274.4751678549447</v>
       </c>
       <c r="E44" t="n">
-        <v>301.7224963065237</v>
+        <v>301.7224963065236</v>
       </c>
       <c r="F44" t="n">
-        <v>326.6681719759733</v>
+        <v>326.6681719759732</v>
       </c>
       <c r="G44" t="n">
-        <v>332.3518538482654</v>
+        <v>332.3518538482653</v>
       </c>
       <c r="H44" t="n">
-        <v>231.1750782000652</v>
+        <v>231.1750782000651</v>
       </c>
       <c r="I44" t="n">
-        <v>24.51812659129217</v>
+        <v>24.51812659129209</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.3058576984711</v>
+        <v>66.30585769847104</v>
       </c>
       <c r="T44" t="n">
-        <v>130.8804499561897</v>
+        <v>130.8804499561896</v>
       </c>
       <c r="U44" t="n">
         <v>170.9183383500078</v>
       </c>
       <c r="V44" t="n">
-        <v>247.5443847043968</v>
+        <v>247.5443847043967</v>
       </c>
       <c r="W44" t="n">
-        <v>269.0330949516749</v>
+        <v>269.0330949516748</v>
       </c>
       <c r="X44" t="n">
-        <v>289.5232269127309</v>
+        <v>289.5232269127308</v>
       </c>
       <c r="Y44" t="n">
-        <v>306.0300648903155</v>
+        <v>306.0300648903154</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.62410641619918</v>
+        <v>99.6241064161991</v>
       </c>
       <c r="C46" t="n">
-        <v>87.03894733288972</v>
+        <v>87.03894733288963</v>
       </c>
       <c r="D46" t="n">
-        <v>68.40759925247424</v>
+        <v>68.40759925247416</v>
       </c>
       <c r="E46" t="n">
-        <v>66.22608888083106</v>
+        <v>66.22608888083097</v>
       </c>
       <c r="F46" t="n">
-        <v>65.21317425719313</v>
+        <v>65.21317425719305</v>
       </c>
       <c r="G46" t="n">
-        <v>86.55268578256143</v>
+        <v>86.55268578256133</v>
       </c>
       <c r="H46" t="n">
-        <v>71.0797480659221</v>
+        <v>71.07974806592202</v>
       </c>
       <c r="I46" t="n">
-        <v>38.24052177964073</v>
+        <v>38.24052177964064</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.76136869281722</v>
+        <v>41.76136869281714</v>
       </c>
       <c r="S46" t="n">
-        <v>122.3658626705501</v>
+        <v>122.36586267055</v>
       </c>
       <c r="T46" t="n">
-        <v>142.4804673827721</v>
+        <v>142.480467382772</v>
       </c>
       <c r="U46" t="n">
-        <v>206.0440417829259</v>
+        <v>206.0440417829258</v>
       </c>
       <c r="V46" t="n">
-        <v>171.9297695580899</v>
+        <v>171.9297695580898</v>
       </c>
       <c r="W46" t="n">
-        <v>206.3151245708529</v>
+        <v>206.3151245708528</v>
       </c>
       <c r="X46" t="n">
-        <v>145.5017816232991</v>
+        <v>145.5017816232989</v>
       </c>
       <c r="Y46" t="n">
-        <v>138.3767795863567</v>
+        <v>138.3767795863566</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1021.455117211613</v>
+        <v>1414.136122333714</v>
       </c>
       <c r="C11" t="n">
-        <v>725.2358927832304</v>
+        <v>1354.742003955824</v>
       </c>
       <c r="D11" t="n">
-        <v>725.2358927832304</v>
+        <v>1069.219597861103</v>
       </c>
       <c r="E11" t="n">
-        <v>412.1909326970155</v>
+        <v>756.1746377748883</v>
       </c>
       <c r="F11" t="n">
-        <v>73.94832041943745</v>
+        <v>417.9320254973103</v>
       </c>
       <c r="G11" t="n">
-        <v>73.94832041943745</v>
+        <v>73.94832041943727</v>
       </c>
       <c r="H11" t="n">
-        <v>73.94832041943745</v>
+        <v>73.94832041943727</v>
       </c>
       <c r="I11" t="n">
-        <v>40.90777418699189</v>
+        <v>40.90777418699176</v>
       </c>
       <c r="J11" t="n">
-        <v>259.5594189561311</v>
+        <v>92.15376993577794</v>
       </c>
       <c r="K11" t="n">
-        <v>387.1024006755571</v>
+        <v>219.696751655204</v>
       </c>
       <c r="L11" t="n">
-        <v>582.2325094783649</v>
+        <v>725.930457219227</v>
       </c>
       <c r="M11" t="n">
-        <v>831.0217905124164</v>
+        <v>974.7197382532785</v>
       </c>
       <c r="N11" t="n">
-        <v>1088.450550593617</v>
+        <v>1232.148498334479</v>
       </c>
       <c r="O11" t="n">
-        <v>1318.19796767064</v>
+        <v>1738.382203898502</v>
       </c>
       <c r="P11" t="n">
-        <v>1739.815320232579</v>
+        <v>1899.965308120433</v>
       </c>
       <c r="Q11" t="n">
-        <v>2023.176596366395</v>
+        <v>2045.388709349588</v>
       </c>
       <c r="R11" t="n">
-        <v>2045.388709349595</v>
+        <v>2045.388709349588</v>
       </c>
       <c r="S11" t="n">
-        <v>1970.138333715958</v>
+        <v>2045.388709349588</v>
       </c>
       <c r="T11" t="n">
-        <v>1970.138333715958</v>
+        <v>2045.388709349588</v>
       </c>
       <c r="U11" t="n">
-        <v>1953.430169976537</v>
+        <v>2045.388709349588</v>
       </c>
       <c r="V11" t="n">
-        <v>1953.430169976537</v>
+        <v>2045.388709349588</v>
       </c>
       <c r="W11" t="n">
-        <v>1953.430169976537</v>
+        <v>2045.388709349588</v>
       </c>
       <c r="X11" t="n">
-        <v>1652.707704227487</v>
+        <v>2045.388709349588</v>
       </c>
       <c r="Y11" t="n">
-        <v>1335.311664763705</v>
+        <v>1727.992669885806</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>902.0299249226613</v>
+        <v>683.8000473865666</v>
       </c>
       <c r="C12" t="n">
-        <v>727.5768956415343</v>
+        <v>582.0903106174691</v>
       </c>
       <c r="D12" t="n">
-        <v>582.9797994202431</v>
+        <v>505.8991934682473</v>
       </c>
       <c r="E12" t="n">
-        <v>423.7423444147877</v>
+        <v>390.2576943263725</v>
       </c>
       <c r="F12" t="n">
-        <v>277.2077864416727</v>
+        <v>243.7231363532575</v>
       </c>
       <c r="G12" t="n">
-        <v>139.9594253519295</v>
+        <v>106.4747752635143</v>
       </c>
       <c r="H12" t="n">
-        <v>40.90777418699189</v>
+        <v>80.16641661060626</v>
       </c>
       <c r="I12" t="n">
-        <v>40.90777418699189</v>
+        <v>40.90777418699176</v>
       </c>
       <c r="J12" t="n">
-        <v>52.61169122775947</v>
+        <v>177.4418162147641</v>
       </c>
       <c r="K12" t="n">
-        <v>150.7703743478347</v>
+        <v>275.6004993348393</v>
       </c>
       <c r="L12" t="n">
-        <v>657.0040799118593</v>
+        <v>453.9095034788119</v>
       </c>
       <c r="M12" t="n">
-        <v>884.439145627754</v>
+        <v>960.1432090428349</v>
       </c>
       <c r="N12" t="n">
-        <v>1132.302385694736</v>
+        <v>1208.006449109817</v>
       </c>
       <c r="O12" t="n">
-        <v>1336.829031142827</v>
+        <v>1714.24015467384</v>
       </c>
       <c r="P12" t="n">
-        <v>1790.524661713379</v>
+        <v>1859.057752790231</v>
       </c>
       <c r="Q12" t="n">
-        <v>2045.388709349595</v>
+        <v>2045.388709349588</v>
       </c>
       <c r="R12" t="n">
-        <v>2036.262008946736</v>
+        <v>2036.262008946729</v>
       </c>
       <c r="S12" t="n">
-        <v>1890.38078907969</v>
+        <v>1890.380789079683</v>
       </c>
       <c r="T12" t="n">
-        <v>1766.912858516723</v>
+        <v>1694.169566004687</v>
       </c>
       <c r="U12" t="n">
-        <v>1611.530063313013</v>
+        <v>1538.786770800977</v>
       </c>
       <c r="V12" t="n">
-        <v>1449.1212475933</v>
+        <v>1376.377955081264</v>
       </c>
       <c r="W12" t="n">
-        <v>1267.627183377128</v>
+        <v>1194.883890865092</v>
       </c>
       <c r="X12" t="n">
-        <v>1132.518975683624</v>
+        <v>987.032390659559</v>
       </c>
       <c r="Y12" t="n">
-        <v>997.5019694306999</v>
+        <v>852.0153844066347</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>490.7645061485318</v>
+        <v>439.6472447327872</v>
       </c>
       <c r="C13" t="n">
-        <v>394.5716157326544</v>
+        <v>343.4543543169098</v>
       </c>
       <c r="D13" t="n">
-        <v>317.1982688323481</v>
+        <v>266.0810074166034</v>
       </c>
       <c r="E13" t="n">
-        <v>242.0284677619844</v>
+        <v>266.0810074166034</v>
       </c>
       <c r="F13" t="n">
-        <v>167.8818127761039</v>
+        <v>191.9343524307226</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8818127761039</v>
+        <v>167.8818127761035</v>
       </c>
       <c r="H13" t="n">
-        <v>87.80932566019374</v>
+        <v>87.80932566019339</v>
       </c>
       <c r="I13" t="n">
-        <v>40.90777418699189</v>
+        <v>40.90777418699176</v>
       </c>
       <c r="J13" t="n">
-        <v>105.898660635001</v>
+        <v>105.8986606350009</v>
       </c>
       <c r="K13" t="n">
-        <v>296.6704512829318</v>
+        <v>296.6704512829319</v>
       </c>
       <c r="L13" t="n">
-        <v>576.3808474597815</v>
+        <v>576.3808474597816</v>
       </c>
       <c r="M13" t="n">
-        <v>877.8097457222243</v>
+        <v>877.8097457222245</v>
       </c>
       <c r="N13" t="n">
         <v>1179.201207348394</v>
@@ -5215,34 +5215,34 @@
         <v>1447.011289849535</v>
       </c>
       <c r="P13" t="n">
-        <v>1662.938310902045</v>
+        <v>1662.938310902046</v>
       </c>
       <c r="Q13" t="n">
-        <v>1750.934160916298</v>
+        <v>1750.934160916299</v>
       </c>
       <c r="R13" t="n">
-        <v>1700.476198419685</v>
+        <v>1750.934160916299</v>
       </c>
       <c r="S13" t="n">
-        <v>1568.599555137484</v>
+        <v>1619.057517634098</v>
       </c>
       <c r="T13" t="n">
-        <v>1416.405129317685</v>
+        <v>1466.863091814299</v>
       </c>
       <c r="U13" t="n">
-        <v>1200.00507279066</v>
+        <v>1250.463035287274</v>
       </c>
       <c r="V13" t="n">
-        <v>1119.639101009162</v>
+        <v>1068.521839593417</v>
       </c>
       <c r="W13" t="n">
-        <v>902.9652234842306</v>
+        <v>851.8479620684858</v>
       </c>
       <c r="X13" t="n">
-        <v>747.7189650982427</v>
+        <v>696.6017036824981</v>
       </c>
       <c r="Y13" t="n">
-        <v>599.6696784667421</v>
+        <v>548.5524170509974</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1294.763597981733</v>
+        <v>1256.991673089608</v>
       </c>
       <c r="C14" t="n">
-        <v>1294.763597981733</v>
+        <v>1256.991673089608</v>
       </c>
       <c r="D14" t="n">
-        <v>1009.241191887012</v>
+        <v>1256.991673089608</v>
       </c>
       <c r="E14" t="n">
-        <v>1009.241191887012</v>
+        <v>943.9467130033935</v>
       </c>
       <c r="F14" t="n">
-        <v>670.9985796094343</v>
+        <v>637.9580333769886</v>
       </c>
       <c r="G14" t="n">
-        <v>327.0148745315612</v>
+        <v>293.9743282991154</v>
       </c>
       <c r="H14" t="n">
-        <v>85.22993273469828</v>
+        <v>52.18938650225272</v>
       </c>
       <c r="I14" t="n">
         <v>52.18938650225272</v>
@@ -5279,49 +5279,49 @@
         <v>270.8410312713919</v>
       </c>
       <c r="K14" t="n">
-        <v>398.384012990818</v>
+        <v>719.2879714362711</v>
       </c>
       <c r="L14" t="n">
-        <v>593.5141217936257</v>
+        <v>914.4180802390788</v>
       </c>
       <c r="M14" t="n">
-        <v>842.3034028276771</v>
+        <v>1163.20736127313</v>
       </c>
       <c r="N14" t="n">
-        <v>1239.20462713998</v>
+        <v>1420.636121354331</v>
       </c>
       <c r="O14" t="n">
-        <v>1845.944223667121</v>
+        <v>1823.732110683921</v>
       </c>
       <c r="P14" t="n">
-        <v>2326.10804897882</v>
+        <v>2303.89593599562</v>
       </c>
       <c r="Q14" t="n">
-        <v>2609.469325112636</v>
+        <v>2587.257212129437</v>
       </c>
       <c r="R14" t="n">
         <v>2609.469325112636</v>
       </c>
       <c r="S14" t="n">
-        <v>2534.218949479</v>
+        <v>2609.469325112636</v>
       </c>
       <c r="T14" t="n">
-        <v>2393.741712978981</v>
+        <v>2468.992088612617</v>
       </c>
       <c r="U14" t="n">
-        <v>2212.822164970054</v>
+        <v>2468.992088612617</v>
       </c>
       <c r="V14" t="n">
-        <v>1954.502570138513</v>
+        <v>2468.992088612617</v>
       </c>
       <c r="W14" t="n">
-        <v>1926.016184997608</v>
+        <v>2188.966725854533</v>
       </c>
       <c r="X14" t="n">
-        <v>1926.016184997608</v>
+        <v>1888.244260105482</v>
       </c>
       <c r="Y14" t="n">
-        <v>1608.620145533826</v>
+        <v>1570.8482206417</v>
       </c>
     </row>
     <row r="15">
@@ -5337,13 +5337,13 @@
         <v>782.4544638203696</v>
       </c>
       <c r="D15" t="n">
-        <v>633.5200541591183</v>
+        <v>633.5200541591182</v>
       </c>
       <c r="E15" t="n">
-        <v>474.2825991536628</v>
+        <v>474.2825991536627</v>
       </c>
       <c r="F15" t="n">
-        <v>327.748041180548</v>
+        <v>327.7480411805476</v>
       </c>
       <c r="G15" t="n">
         <v>190.4996800908048</v>
@@ -5355,22 +5355,22 @@
         <v>52.18938650225272</v>
       </c>
       <c r="J15" t="n">
-        <v>188.723428530025</v>
+        <v>63.89330354302029</v>
       </c>
       <c r="K15" t="n">
-        <v>548.7026962925531</v>
+        <v>423.8725713055483</v>
       </c>
       <c r="L15" t="n">
-        <v>1094.14364228695</v>
+        <v>969.3135172999455</v>
       </c>
       <c r="M15" t="n">
-        <v>1442.119652891419</v>
+        <v>1615.157175265323</v>
       </c>
       <c r="N15" t="n">
-        <v>1689.982892958401</v>
+        <v>1863.020415332305</v>
       </c>
       <c r="O15" t="n">
-        <v>1894.509538406492</v>
+        <v>2209.787679360029</v>
       </c>
       <c r="P15" t="n">
         <v>2354.60527747642</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>509.376066869644</v>
+        <v>597.7478355965098</v>
       </c>
       <c r="C16" t="n">
-        <v>501.5549451806328</v>
+        <v>501.5549451806324</v>
       </c>
       <c r="D16" t="n">
-        <v>424.1815982803265</v>
+        <v>424.1815982803262</v>
       </c>
       <c r="E16" t="n">
-        <v>349.0117972099629</v>
+        <v>349.0117972099626</v>
       </c>
       <c r="F16" t="n">
-        <v>274.865142224082</v>
+        <v>274.8651422240818</v>
       </c>
       <c r="G16" t="n">
         <v>179.1634250913644</v>
       </c>
       <c r="H16" t="n">
-        <v>99.09093797545441</v>
+        <v>99.09093797545434</v>
       </c>
       <c r="I16" t="n">
         <v>52.18938650225272</v>
       </c>
       <c r="J16" t="n">
-        <v>117.1802729502618</v>
+        <v>117.1802729502619</v>
       </c>
       <c r="K16" t="n">
-        <v>307.9520635981926</v>
+        <v>307.9520635981927</v>
       </c>
       <c r="L16" t="n">
-        <v>587.6624597750423</v>
+        <v>587.6624597750424</v>
       </c>
       <c r="M16" t="n">
-        <v>889.0913580374852</v>
+        <v>889.0913580374853</v>
       </c>
       <c r="N16" t="n">
         <v>1190.482819663655</v>
@@ -5458,28 +5458,28 @@
         <v>1762.215773231559</v>
       </c>
       <c r="R16" t="n">
-        <v>1711.757810734946</v>
+        <v>1711.757810734947</v>
       </c>
       <c r="S16" t="n">
-        <v>1579.881167452745</v>
+        <v>1711.757810734947</v>
       </c>
       <c r="T16" t="n">
-        <v>1427.686741632946</v>
+        <v>1559.563384915148</v>
       </c>
       <c r="U16" t="n">
-        <v>1211.286685105921</v>
+        <v>1343.163328388123</v>
       </c>
       <c r="V16" t="n">
-        <v>1029.345489412064</v>
+        <v>1161.222132694265</v>
       </c>
       <c r="W16" t="n">
-        <v>812.6716118871325</v>
+        <v>944.5482551693343</v>
       </c>
       <c r="X16" t="n">
-        <v>657.4253535011446</v>
+        <v>789.3019967833465</v>
       </c>
       <c r="Y16" t="n">
-        <v>509.376066869644</v>
+        <v>641.2527101518459</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1169.67774029137</v>
       </c>
       <c r="D17" t="n">
-        <v>965.173388505475</v>
+        <v>965.1733885054755</v>
       </c>
       <c r="E17" t="n">
-        <v>733.146482728087</v>
+        <v>733.1464827280873</v>
       </c>
       <c r="F17" t="n">
-        <v>475.9219247593354</v>
+        <v>475.921924759336</v>
       </c>
       <c r="G17" t="n">
-        <v>212.956273990289</v>
+        <v>212.9562739902889</v>
       </c>
       <c r="H17" t="n">
         <v>52.18938650225272</v>
@@ -5516,25 +5516,25 @@
         <v>270.8410312713919</v>
       </c>
       <c r="K17" t="n">
-        <v>719.2879714362711</v>
+        <v>398.384012990818</v>
       </c>
       <c r="L17" t="n">
-        <v>914.4180802390788</v>
+        <v>593.5141217936257</v>
       </c>
       <c r="M17" t="n">
-        <v>1336.555933525698</v>
+        <v>842.3034028276771</v>
       </c>
       <c r="N17" t="n">
-        <v>1593.984693606899</v>
+        <v>1488.147060793055</v>
       </c>
       <c r="O17" t="n">
-        <v>1823.732110683921</v>
+        <v>2094.886657320195</v>
       </c>
       <c r="P17" t="n">
-        <v>2303.89593599562</v>
+        <v>2536.299889732125</v>
       </c>
       <c r="Q17" t="n">
-        <v>2587.257212129437</v>
+        <v>2609.469325112636</v>
       </c>
       <c r="R17" t="n">
         <v>2609.469325112636</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>956.9074931014966</v>
+        <v>956.9074931014961</v>
       </c>
       <c r="C18" t="n">
-        <v>782.4544638203696</v>
+        <v>782.4544638203691</v>
       </c>
       <c r="D18" t="n">
-        <v>633.5200541591182</v>
+        <v>633.5200541591178</v>
       </c>
       <c r="E18" t="n">
-        <v>474.2825991536627</v>
+        <v>474.2825991536622</v>
       </c>
       <c r="F18" t="n">
-        <v>327.7480411805476</v>
+        <v>327.7480411805471</v>
       </c>
       <c r="G18" t="n">
-        <v>190.4996800908048</v>
+        <v>190.4996800908043</v>
       </c>
       <c r="H18" t="n">
         <v>91.44802892586722</v>
@@ -5592,19 +5592,19 @@
         <v>52.18938650225272</v>
       </c>
       <c r="J18" t="n">
-        <v>188.723428530025</v>
+        <v>63.89330354302029</v>
       </c>
       <c r="K18" t="n">
-        <v>548.7026962925531</v>
+        <v>162.0519866630955</v>
       </c>
       <c r="L18" t="n">
-        <v>1094.14364228695</v>
+        <v>707.4929326574926</v>
       </c>
       <c r="M18" t="n">
-        <v>1321.578708002845</v>
+        <v>1353.33659062287</v>
       </c>
       <c r="N18" t="n">
-        <v>1569.441948069827</v>
+        <v>1689.982892958401</v>
       </c>
       <c r="O18" t="n">
         <v>1894.509538406492</v>
@@ -5625,19 +5625,19 @@
         <v>2258.250181767735</v>
       </c>
       <c r="U18" t="n">
-        <v>2030.124094051996</v>
+        <v>2030.124094051995</v>
       </c>
       <c r="V18" t="n">
-        <v>1794.971985820253</v>
+        <v>1794.971985820252</v>
       </c>
       <c r="W18" t="n">
         <v>1540.734629092051</v>
       </c>
       <c r="X18" t="n">
-        <v>1332.883128886519</v>
+        <v>1332.883128886518</v>
       </c>
       <c r="Y18" t="n">
-        <v>1125.122830121565</v>
+        <v>1125.122830121564</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>381.2511513125122</v>
+        <v>227.4898044916567</v>
       </c>
       <c r="C19" t="n">
-        <v>366.0763152054612</v>
+        <v>212.3149683846058</v>
       </c>
       <c r="D19" t="n">
-        <v>366.0763152054612</v>
+        <v>66.87304932614373</v>
       </c>
       <c r="E19" t="n">
-        <v>366.0763152054612</v>
+        <v>66.87304932614373</v>
       </c>
       <c r="F19" t="n">
-        <v>366.0763152054612</v>
+        <v>66.87304932614373</v>
       </c>
       <c r="G19" t="n">
-        <v>211.4379939467733</v>
+        <v>52.18938650225272</v>
       </c>
       <c r="H19" t="n">
-        <v>58.62221431883365</v>
+        <v>52.18938650225272</v>
       </c>
       <c r="I19" t="n">
-        <v>58.62221431883365</v>
+        <v>52.18938650225272</v>
       </c>
       <c r="J19" t="n">
         <v>52.18938650225272</v>
@@ -5698,25 +5698,25 @@
         <v>1198.154979846269</v>
       </c>
       <c r="S19" t="n">
-        <v>993.5350440520385</v>
+        <v>1147.296390872895</v>
       </c>
       <c r="T19" t="n">
-        <v>922.358672541066</v>
+        <v>1076.120019361922</v>
       </c>
       <c r="U19" t="n">
-        <v>786.9766703228673</v>
+        <v>786.9766703228674</v>
       </c>
       <c r="V19" t="n">
-        <v>686.0535289378364</v>
+        <v>686.0535289378365</v>
       </c>
       <c r="W19" t="n">
-        <v>550.3977057217317</v>
+        <v>550.3977057217319</v>
       </c>
       <c r="X19" t="n">
-        <v>476.1695016445702</v>
+        <v>322.4081548237145</v>
       </c>
       <c r="Y19" t="n">
-        <v>409.138269321896</v>
+        <v>255.3769225010404</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1384.878910410925</v>
+        <v>1384.878910410926</v>
       </c>
       <c r="C20" t="n">
         <v>1169.67774029137</v>
       </c>
       <c r="D20" t="n">
-        <v>965.1733885054755</v>
+        <v>965.1733885054759</v>
       </c>
       <c r="E20" t="n">
-        <v>733.1464827280872</v>
+        <v>733.1464827280877</v>
       </c>
       <c r="F20" t="n">
-        <v>475.9219247593355</v>
+        <v>475.9219247593362</v>
       </c>
       <c r="G20" t="n">
         <v>212.956273990289</v>
@@ -5753,25 +5753,25 @@
         <v>270.8410312713919</v>
       </c>
       <c r="K20" t="n">
-        <v>398.384012990818</v>
+        <v>719.2879714362711</v>
       </c>
       <c r="L20" t="n">
-        <v>593.5141217936257</v>
+        <v>914.4180802390788</v>
       </c>
       <c r="M20" t="n">
-        <v>842.3034028276771</v>
+        <v>1560.261738204456</v>
       </c>
       <c r="N20" t="n">
-        <v>1216.992514156781</v>
+        <v>1817.690498285657</v>
       </c>
       <c r="O20" t="n">
-        <v>1823.732110683921</v>
+        <v>2164.524944756889</v>
       </c>
       <c r="P20" t="n">
-        <v>2303.89593599562</v>
+        <v>2326.10804897882</v>
       </c>
       <c r="Q20" t="n">
-        <v>2587.257212129437</v>
+        <v>2609.469325112636</v>
       </c>
       <c r="R20" t="n">
         <v>2609.469325112636</v>
@@ -5786,16 +5786,16 @@
         <v>2450.108649221344</v>
       </c>
       <c r="V20" t="n">
-        <v>2272.807108698629</v>
+        <v>2272.80710869863</v>
       </c>
       <c r="W20" t="n">
-        <v>2073.79980024937</v>
+        <v>2073.799800249371</v>
       </c>
       <c r="X20" t="n">
-        <v>1854.095388809147</v>
+        <v>1854.095388809148</v>
       </c>
       <c r="Y20" t="n">
-        <v>1617.717403654191</v>
+        <v>1617.717403654192</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>956.9074931014967</v>
+        <v>956.9074931014966</v>
       </c>
       <c r="C21" t="n">
-        <v>782.4544638203697</v>
+        <v>782.4544638203696</v>
       </c>
       <c r="D21" t="n">
-        <v>633.5200541591184</v>
+        <v>633.5200541591183</v>
       </c>
       <c r="E21" t="n">
-        <v>474.282599153663</v>
+        <v>474.2825991536628</v>
       </c>
       <c r="F21" t="n">
-        <v>327.748041180548</v>
+        <v>327.7480411805478</v>
       </c>
       <c r="G21" t="n">
         <v>190.4996800908048</v>
@@ -5829,25 +5829,25 @@
         <v>52.18938650225272</v>
       </c>
       <c r="J21" t="n">
-        <v>188.723428530025</v>
+        <v>63.89330354302029</v>
       </c>
       <c r="K21" t="n">
-        <v>548.7026962925531</v>
+        <v>423.8725713055483</v>
       </c>
       <c r="L21" t="n">
-        <v>1094.14364228695</v>
+        <v>969.3135172999455</v>
       </c>
       <c r="M21" t="n">
-        <v>1442.119652891419</v>
+        <v>1252.115749851514</v>
       </c>
       <c r="N21" t="n">
-        <v>1689.982892958401</v>
+        <v>1897.959407816891</v>
       </c>
       <c r="O21" t="n">
-        <v>1894.509538406492</v>
+        <v>2102.486053264982</v>
       </c>
       <c r="P21" t="n">
-        <v>2354.60527747642</v>
+        <v>2562.58179233491</v>
       </c>
       <c r="Q21" t="n">
         <v>2609.469325112636</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>381.2511513125122</v>
+        <v>235.8092322540507</v>
       </c>
       <c r="C22" t="n">
-        <v>366.0763152054612</v>
+        <v>220.6343961469997</v>
       </c>
       <c r="D22" t="n">
-        <v>366.0763152054612</v>
+        <v>220.6343961469997</v>
       </c>
       <c r="E22" t="n">
-        <v>366.0763152054612</v>
+        <v>220.6343961469997</v>
       </c>
       <c r="F22" t="n">
-        <v>366.0763152054612</v>
+        <v>220.6343961469997</v>
       </c>
       <c r="G22" t="n">
-        <v>211.4379939467733</v>
+        <v>52.18938650225272</v>
       </c>
       <c r="H22" t="n">
-        <v>58.62221431883365</v>
+        <v>52.18938650225272</v>
       </c>
       <c r="I22" t="n">
-        <v>58.62221431883365</v>
+        <v>52.18938650225272</v>
       </c>
       <c r="J22" t="n">
         <v>52.18938650225272</v>
@@ -5935,25 +5935,25 @@
         <v>1198.154979846269</v>
       </c>
       <c r="S22" t="n">
-        <v>1147.296390872894</v>
+        <v>1147.296390872895</v>
       </c>
       <c r="T22" t="n">
-        <v>1076.120019361922</v>
+        <v>922.358672541066</v>
       </c>
       <c r="U22" t="n">
-        <v>940.7380171437231</v>
+        <v>786.9766703228673</v>
       </c>
       <c r="V22" t="n">
-        <v>839.8148757586922</v>
+        <v>686.0535289378364</v>
       </c>
       <c r="W22" t="n">
-        <v>550.3977057217317</v>
+        <v>550.3977057217318</v>
       </c>
       <c r="X22" t="n">
-        <v>476.1695016445702</v>
+        <v>476.1695016445704</v>
       </c>
       <c r="Y22" t="n">
-        <v>409.138269321896</v>
+        <v>263.6963502634344</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1384.878910410926</v>
+        <v>1384.878910410924</v>
       </c>
       <c r="C23" t="n">
-        <v>1169.67774029137</v>
+        <v>1169.677740291369</v>
       </c>
       <c r="D23" t="n">
-        <v>965.1733885054757</v>
+        <v>965.1733885054741</v>
       </c>
       <c r="E23" t="n">
-        <v>733.1464827280872</v>
+        <v>733.1464827280861</v>
       </c>
       <c r="F23" t="n">
-        <v>475.9219247593355</v>
+        <v>475.9219247593346</v>
       </c>
       <c r="G23" t="n">
-        <v>212.956273990289</v>
+        <v>212.9562739902889</v>
       </c>
       <c r="H23" t="n">
-        <v>52.18938650225272</v>
+        <v>52.1893865022527</v>
       </c>
       <c r="I23" t="n">
-        <v>52.18938650225272</v>
+        <v>52.1893865022527</v>
       </c>
       <c r="J23" t="n">
-        <v>103.4353822510389</v>
+        <v>270.8410312713919</v>
       </c>
       <c r="K23" t="n">
-        <v>551.882322415918</v>
+        <v>719.2879714362711</v>
       </c>
       <c r="L23" t="n">
-        <v>1160.497033623672</v>
+        <v>914.4180802390788</v>
       </c>
       <c r="M23" t="n">
-        <v>1409.286314657723</v>
+        <v>1163.20736127313</v>
       </c>
       <c r="N23" t="n">
-        <v>1666.715074738924</v>
+        <v>1420.636121354331</v>
       </c>
       <c r="O23" t="n">
-        <v>1896.462491815946</v>
+        <v>1823.73211068392</v>
       </c>
       <c r="P23" t="n">
-        <v>2376.626317127646</v>
+        <v>2303.895935995619</v>
       </c>
       <c r="Q23" t="n">
-        <v>2609.469325112636</v>
+        <v>2587.257212129436</v>
       </c>
       <c r="R23" t="n">
-        <v>2609.469325112636</v>
+        <v>2609.469325112635</v>
       </c>
       <c r="S23" t="n">
-        <v>2609.469325112636</v>
+        <v>2609.469325112635</v>
       </c>
       <c r="T23" t="n">
-        <v>2550.010142921444</v>
+        <v>2550.010142921442</v>
       </c>
       <c r="U23" t="n">
-        <v>2450.108649221344</v>
+        <v>2450.108649221343</v>
       </c>
       <c r="V23" t="n">
-        <v>2272.80710869863</v>
+        <v>2272.807108698628</v>
       </c>
       <c r="W23" t="n">
-        <v>2073.799800249371</v>
+        <v>2073.79980024937</v>
       </c>
       <c r="X23" t="n">
-        <v>1854.095388809147</v>
+        <v>1854.095388809146</v>
       </c>
       <c r="Y23" t="n">
-        <v>1617.717403654192</v>
+        <v>1617.71740365419</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>91.44802892586722</v>
       </c>
       <c r="I24" t="n">
-        <v>52.18938650225272</v>
+        <v>52.1893865022527</v>
       </c>
       <c r="J24" t="n">
-        <v>188.723428530025</v>
+        <v>63.89330354302028</v>
       </c>
       <c r="K24" t="n">
-        <v>286.8821116501002</v>
+        <v>162.0519866630955</v>
       </c>
       <c r="L24" t="n">
-        <v>465.1911157940727</v>
+        <v>340.360990807068</v>
       </c>
       <c r="M24" t="n">
-        <v>1111.03477375945</v>
+        <v>986.2046487724451</v>
       </c>
       <c r="N24" t="n">
-        <v>1358.898013826432</v>
+        <v>1300.059196874439</v>
       </c>
       <c r="O24" t="n">
         <v>1894.509538406492</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.04788543319482</v>
+        <v>227.4898044916567</v>
       </c>
       <c r="C25" t="n">
-        <v>66.87304932614381</v>
+        <v>212.3149683846057</v>
       </c>
       <c r="D25" t="n">
-        <v>66.87304932614381</v>
+        <v>73.30587714272467</v>
       </c>
       <c r="E25" t="n">
-        <v>66.87304932614381</v>
+        <v>73.30587714272467</v>
       </c>
       <c r="F25" t="n">
-        <v>66.87304932614381</v>
+        <v>73.30587714272467</v>
       </c>
       <c r="G25" t="n">
-        <v>52.18938650225272</v>
+        <v>58.62221431883363</v>
       </c>
       <c r="H25" t="n">
-        <v>52.18938650225272</v>
+        <v>58.62221431883363</v>
       </c>
       <c r="I25" t="n">
-        <v>52.18938650225272</v>
+        <v>58.62221431883363</v>
       </c>
       <c r="J25" t="n">
-        <v>52.18938650225272</v>
+        <v>52.1893865022527</v>
       </c>
       <c r="K25" t="n">
         <v>171.6654761591435</v>
@@ -6172,25 +6172,25 @@
         <v>1198.154979846269</v>
       </c>
       <c r="S25" t="n">
-        <v>1147.296390872894</v>
+        <v>1147.296390872895</v>
       </c>
       <c r="T25" t="n">
         <v>1076.120019361922</v>
       </c>
       <c r="U25" t="n">
-        <v>786.9766703228672</v>
+        <v>940.7380171437234</v>
       </c>
       <c r="V25" t="n">
-        <v>532.2921821169804</v>
+        <v>686.0535289378365</v>
       </c>
       <c r="W25" t="n">
-        <v>396.6363589008756</v>
+        <v>550.3977057217319</v>
       </c>
       <c r="X25" t="n">
-        <v>176.9662357652528</v>
+        <v>476.1695016445705</v>
       </c>
       <c r="Y25" t="n">
-        <v>109.9350034425786</v>
+        <v>409.1382693218964</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1867.275964223422</v>
+        <v>1867.275964223423</v>
       </c>
       <c r="C26" t="n">
-        <v>1579.331501591836</v>
+        <v>1579.331501591837</v>
       </c>
       <c r="D26" t="n">
-        <v>1302.083857293912</v>
+        <v>1302.083857293913</v>
       </c>
       <c r="E26" t="n">
-        <v>997.3136590044944</v>
+        <v>997.3136590044953</v>
       </c>
       <c r="F26" t="n">
-        <v>667.3458085237132</v>
+        <v>667.3458085237141</v>
       </c>
       <c r="G26" t="n">
-        <v>331.6368652426372</v>
+        <v>331.636865242638</v>
       </c>
       <c r="H26" t="n">
         <v>98.12668524257219</v>
@@ -6224,52 +6224,52 @@
         <v>73.36090080692358</v>
       </c>
       <c r="J26" t="n">
-        <v>292.0125455760628</v>
+        <v>124.6068965557097</v>
       </c>
       <c r="K26" t="n">
-        <v>740.459485740942</v>
+        <v>573.0538367205888</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.074196948696</v>
+        <v>891.3583349493032</v>
       </c>
       <c r="M26" t="n">
-        <v>2042.881876140651</v>
+        <v>1585.166014141259</v>
       </c>
       <c r="N26" t="n">
-        <v>2594.148950480092</v>
+        <v>2275.568229390324</v>
       </c>
       <c r="O26" t="n">
-        <v>3200.888547007232</v>
+        <v>2882.307825917464</v>
       </c>
       <c r="P26" t="n">
         <v>3362.471651229163</v>
       </c>
       <c r="Q26" t="n">
-        <v>3645.83292736298</v>
+        <v>3645.832927362979</v>
       </c>
       <c r="R26" t="n">
         <v>3668.045040346179</v>
       </c>
       <c r="S26" t="n">
-        <v>3601.06942650934</v>
+        <v>3601.069426509339</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.866951806118</v>
+        <v>3468.866951806117</v>
       </c>
       <c r="U26" t="n">
-        <v>3296.222165593988</v>
+        <v>3296.222165593989</v>
       </c>
       <c r="V26" t="n">
-        <v>3046.177332559244</v>
+        <v>3046.177332559245</v>
       </c>
       <c r="W26" t="n">
-        <v>2774.426731597956</v>
+        <v>2774.426731597957</v>
       </c>
       <c r="X26" t="n">
-        <v>2481.979027645702</v>
+        <v>2481.979027645703</v>
       </c>
       <c r="Y26" t="n">
-        <v>2172.857749978717</v>
+        <v>2172.857749978718</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6306,16 @@
         <v>209.8949428346959</v>
       </c>
       <c r="K27" t="n">
-        <v>569.874210597224</v>
+        <v>569.8742105972237</v>
       </c>
       <c r="L27" t="n">
-        <v>748.1832147411965</v>
+        <v>748.1832147411963</v>
       </c>
       <c r="M27" t="n">
-        <v>1436.666293569591</v>
+        <v>975.6182804570908</v>
       </c>
       <c r="N27" t="n">
-        <v>1711.154407263072</v>
+        <v>1698.030471124191</v>
       </c>
       <c r="O27" t="n">
         <v>1915.681052711163</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.9960173236027</v>
+        <v>560.9960173236026</v>
       </c>
       <c r="C28" t="n">
-        <v>473.0778887045222</v>
+        <v>473.0778887045221</v>
       </c>
       <c r="D28" t="n">
-        <v>403.9793036010129</v>
+        <v>403.9793036010128</v>
       </c>
       <c r="E28" t="n">
-        <v>337.0842643274462</v>
+        <v>337.0842643274461</v>
       </c>
       <c r="F28" t="n">
-        <v>271.2123711383623</v>
+        <v>271.2123711383622</v>
       </c>
       <c r="G28" t="n">
         <v>183.7854158024417</v>
@@ -6385,13 +6385,13 @@
         <v>146.4618812919734</v>
       </c>
       <c r="K28" t="n">
-        <v>345.343765976945</v>
+        <v>345.3437659769448</v>
       </c>
       <c r="L28" t="n">
-        <v>633.1642561908354</v>
+        <v>633.1642561908352</v>
       </c>
       <c r="M28" t="n">
-        <v>942.7032484903191</v>
+        <v>942.7032484903187</v>
       </c>
       <c r="N28" t="n">
         <v>1252.204804153529</v>
@@ -6406,28 +6406,28 @@
         <v>1848.268039832555</v>
       </c>
       <c r="R28" t="n">
-        <v>1806.08483913274</v>
+        <v>1806.084839132739</v>
       </c>
       <c r="S28" t="n">
-        <v>1682.482957647336</v>
+        <v>1682.482957647335</v>
       </c>
       <c r="T28" t="n">
-        <v>1538.563293624334</v>
+        <v>1538.563293624333</v>
       </c>
       <c r="U28" t="n">
-        <v>1330.437998894106</v>
+        <v>1330.437998894105</v>
       </c>
       <c r="V28" t="n">
         <v>1156.771564997045</v>
       </c>
       <c r="W28" t="n">
-        <v>948.3724492689112</v>
+        <v>948.3724492689104</v>
       </c>
       <c r="X28" t="n">
-        <v>801.4009526797203</v>
+        <v>801.4009526797195</v>
       </c>
       <c r="Y28" t="n">
-        <v>661.626427845016</v>
+        <v>661.6264278450159</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>73.36090080692358</v>
       </c>
       <c r="J29" t="n">
-        <v>292.0125455760627</v>
+        <v>292.0125455760628</v>
       </c>
       <c r="K29" t="n">
-        <v>419.5555272954886</v>
+        <v>740.459485740942</v>
       </c>
       <c r="L29" t="n">
-        <v>913.5704479325029</v>
+        <v>1349.074196948696</v>
       </c>
       <c r="M29" t="n">
-        <v>1607.378127124458</v>
+        <v>2042.881876140651</v>
       </c>
       <c r="N29" t="n">
-        <v>2297.780342373523</v>
+        <v>2485.760070143629</v>
       </c>
       <c r="O29" t="n">
-        <v>2904.519938900663</v>
+        <v>3092.49966667077</v>
       </c>
       <c r="P29" t="n">
-        <v>3384.683764212362</v>
+        <v>3572.663491982469</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.045040346179</v>
+        <v>3645.832927362979</v>
       </c>
       <c r="R29" t="n">
         <v>3668.045040346179</v>
@@ -6497,7 +6497,7 @@
         <v>3296.222165593989</v>
       </c>
       <c r="V29" t="n">
-        <v>3046.177332559244</v>
+        <v>3046.177332559245</v>
       </c>
       <c r="W29" t="n">
         <v>2774.426731597957</v>
@@ -6543,22 +6543,22 @@
         <v>209.8949428346959</v>
       </c>
       <c r="K30" t="n">
-        <v>569.8742105972237</v>
+        <v>569.874210597224</v>
       </c>
       <c r="L30" t="n">
-        <v>1115.315156591621</v>
+        <v>1053.908920254724</v>
       </c>
       <c r="M30" t="n">
-        <v>1463.291167196091</v>
+        <v>1281.343985970618</v>
       </c>
       <c r="N30" t="n">
-        <v>1711.154407263073</v>
+        <v>1529.2072260376</v>
       </c>
       <c r="O30" t="n">
-        <v>1915.681052711163</v>
+        <v>2123.657567569653</v>
       </c>
       <c r="P30" t="n">
-        <v>2375.776791781092</v>
+        <v>2583.753306639582</v>
       </c>
       <c r="Q30" t="n">
         <v>2630.640839417307</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.9960173236027</v>
+        <v>560.9960173236025</v>
       </c>
       <c r="C31" t="n">
-        <v>473.0778887045222</v>
+        <v>473.077888704522</v>
       </c>
       <c r="D31" t="n">
-        <v>403.9793036010129</v>
+        <v>403.9793036010127</v>
       </c>
       <c r="E31" t="n">
-        <v>337.0842643274462</v>
+        <v>337.084264327446</v>
       </c>
       <c r="F31" t="n">
-        <v>271.2123711383624</v>
+        <v>271.2123711383621</v>
       </c>
       <c r="G31" t="n">
-        <v>183.7854158024418</v>
+        <v>183.7854158024415</v>
       </c>
       <c r="H31" t="n">
         <v>111.9876904833283</v>
@@ -6619,13 +6619,13 @@
         <v>73.36090080692358</v>
       </c>
       <c r="J31" t="n">
-        <v>146.4618812919733</v>
+        <v>146.4618812919734</v>
       </c>
       <c r="K31" t="n">
-        <v>345.3437659769448</v>
+        <v>345.343765976945</v>
       </c>
       <c r="L31" t="n">
-        <v>633.1642561908352</v>
+        <v>633.1642561908353</v>
       </c>
       <c r="M31" t="n">
         <v>942.7032484903189</v>
@@ -6643,28 +6643,28 @@
         <v>1848.268039832555</v>
       </c>
       <c r="R31" t="n">
-        <v>1806.084839132739</v>
+        <v>1806.08483913274</v>
       </c>
       <c r="S31" t="n">
-        <v>1682.482957647335</v>
+        <v>1682.482957647336</v>
       </c>
       <c r="T31" t="n">
         <v>1538.563293624333</v>
       </c>
       <c r="U31" t="n">
-        <v>1330.437998894105</v>
+        <v>1330.437998894106</v>
       </c>
       <c r="V31" t="n">
-        <v>1156.771564997045</v>
+        <v>1156.771564997046</v>
       </c>
       <c r="W31" t="n">
-        <v>948.3724492689105</v>
+        <v>948.3724492689101</v>
       </c>
       <c r="X31" t="n">
-        <v>801.4009526797196</v>
+        <v>801.4009526797192</v>
       </c>
       <c r="Y31" t="n">
-        <v>661.626427845016</v>
+        <v>661.6264278450158</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1867.275964223423</v>
+        <v>1867.275964223422</v>
       </c>
       <c r="C32" t="n">
-        <v>1579.331501591838</v>
+        <v>1579.331501591837</v>
       </c>
       <c r="D32" t="n">
-        <v>1302.083857293914</v>
+        <v>1302.083857293913</v>
       </c>
       <c r="E32" t="n">
-        <v>997.3136590044959</v>
+        <v>997.3136590044949</v>
       </c>
       <c r="F32" t="n">
-        <v>667.3458085237147</v>
+        <v>667.3458085237137</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6368652426386</v>
+        <v>331.636865242638</v>
       </c>
       <c r="H32" t="n">
-        <v>98.12668524257225</v>
+        <v>98.12668524257222</v>
       </c>
       <c r="I32" t="n">
         <v>73.3609008069236</v>
       </c>
       <c r="J32" t="n">
-        <v>292.0125455760628</v>
+        <v>279.3150817345751</v>
       </c>
       <c r="K32" t="n">
-        <v>740.459485740942</v>
+        <v>727.7620218994542</v>
       </c>
       <c r="L32" t="n">
-        <v>1349.074196948696</v>
+        <v>1336.376733107208</v>
       </c>
       <c r="M32" t="n">
-        <v>1795.357854894566</v>
+        <v>1585.166014141259</v>
       </c>
       <c r="N32" t="n">
-        <v>2485.760070143631</v>
+        <v>2275.568229390325</v>
       </c>
       <c r="O32" t="n">
-        <v>3092.499666670771</v>
+        <v>2882.307825917465</v>
       </c>
       <c r="P32" t="n">
-        <v>3572.66349198247</v>
+        <v>3362.471651229164</v>
       </c>
       <c r="Q32" t="n">
-        <v>3645.832927362981</v>
+        <v>3645.83292736298</v>
       </c>
       <c r="R32" t="n">
         <v>3668.04504034618</v>
@@ -6731,19 +6731,19 @@
         <v>3468.866951806118</v>
       </c>
       <c r="U32" t="n">
-        <v>3296.222165593989</v>
+        <v>3296.222165593988</v>
       </c>
       <c r="V32" t="n">
-        <v>3046.177332559245</v>
+        <v>3046.177332559244</v>
       </c>
       <c r="W32" t="n">
-        <v>2774.426731597957</v>
+        <v>2774.426731597956</v>
       </c>
       <c r="X32" t="n">
-        <v>2481.979027645704</v>
+        <v>2481.979027645703</v>
       </c>
       <c r="Y32" t="n">
-        <v>2172.857749978719</v>
+        <v>2172.857749978717</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>209.8949428346959</v>
       </c>
       <c r="K33" t="n">
-        <v>569.874210597224</v>
+        <v>308.0536259547712</v>
       </c>
       <c r="L33" t="n">
-        <v>1115.315156591621</v>
+        <v>853.4945719491683</v>
       </c>
       <c r="M33" t="n">
-        <v>1342.750222307516</v>
+        <v>1511.996872408</v>
       </c>
       <c r="N33" t="n">
-        <v>1590.613462374498</v>
+        <v>2234.4090630751</v>
       </c>
       <c r="O33" t="n">
-        <v>1915.681052711163</v>
+        <v>2438.935708523191</v>
       </c>
       <c r="P33" t="n">
-        <v>2375.776791781092</v>
+        <v>2583.753306639582</v>
       </c>
       <c r="Q33" t="n">
         <v>2630.640839417307</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.9960173236028</v>
+        <v>560.9960173236027</v>
       </c>
       <c r="C34" t="n">
-        <v>473.0778887045223</v>
+        <v>473.0778887045221</v>
       </c>
       <c r="D34" t="n">
-        <v>403.979303601013</v>
+        <v>403.9793036010128</v>
       </c>
       <c r="E34" t="n">
-        <v>337.0842643274462</v>
+        <v>337.0842643274461</v>
       </c>
       <c r="F34" t="n">
         <v>271.2123711383622</v>
       </c>
       <c r="G34" t="n">
-        <v>183.7854158024416</v>
+        <v>183.7854158024415</v>
       </c>
       <c r="H34" t="n">
-        <v>111.9876904833284</v>
+        <v>111.9876904833283</v>
       </c>
       <c r="I34" t="n">
         <v>73.3609008069236</v>
@@ -6859,13 +6859,13 @@
         <v>146.4618812919734</v>
       </c>
       <c r="K34" t="n">
-        <v>345.343765976945</v>
+        <v>345.3437659769448</v>
       </c>
       <c r="L34" t="n">
-        <v>633.1642561908353</v>
+        <v>633.1642561908352</v>
       </c>
       <c r="M34" t="n">
-        <v>942.7032484903189</v>
+        <v>942.7032484903187</v>
       </c>
       <c r="N34" t="n">
         <v>1252.204804153529</v>
@@ -6874,16 +6874,16 @@
         <v>1528.124980691711</v>
       </c>
       <c r="P34" t="n">
-        <v>1752.162095781262</v>
+        <v>1752.162095781261</v>
       </c>
       <c r="Q34" t="n">
         <v>1848.268039832555</v>
       </c>
       <c r="R34" t="n">
-        <v>1806.084839132739</v>
+        <v>1806.08483913274</v>
       </c>
       <c r="S34" t="n">
-        <v>1682.482957647335</v>
+        <v>1682.482957647336</v>
       </c>
       <c r="T34" t="n">
         <v>1538.563293624333</v>
@@ -6895,13 +6895,13 @@
         <v>1156.771564997045</v>
       </c>
       <c r="W34" t="n">
-        <v>948.3724492689103</v>
+        <v>948.3724492689106</v>
       </c>
       <c r="X34" t="n">
-        <v>801.4009526797194</v>
+        <v>801.4009526797197</v>
       </c>
       <c r="Y34" t="n">
-        <v>661.6264278450161</v>
+        <v>661.626427845016</v>
       </c>
     </row>
     <row r="35">
@@ -6917,70 +6917,70 @@
         <v>1579.331501591837</v>
       </c>
       <c r="D35" t="n">
-        <v>1302.083857293913</v>
+        <v>1302.083857293912</v>
       </c>
       <c r="E35" t="n">
-        <v>997.3136590044949</v>
+        <v>997.3136590044945</v>
       </c>
       <c r="F35" t="n">
-        <v>667.3458085237137</v>
+        <v>667.3458085237133</v>
       </c>
       <c r="G35" t="n">
-        <v>331.6368652426377</v>
+        <v>331.6368652426372</v>
       </c>
       <c r="H35" t="n">
         <v>98.12668524257222</v>
       </c>
       <c r="I35" t="n">
-        <v>73.36090080692358</v>
+        <v>73.36090080692357</v>
       </c>
       <c r="J35" t="n">
         <v>292.0125455760628</v>
       </c>
       <c r="K35" t="n">
-        <v>659.7358031916675</v>
+        <v>740.459485740942</v>
       </c>
       <c r="L35" t="n">
-        <v>1268.350514399421</v>
+        <v>1349.074196948696</v>
       </c>
       <c r="M35" t="n">
-        <v>1962.158193591377</v>
+        <v>2042.881876140651</v>
       </c>
       <c r="N35" t="n">
-        <v>2652.560408840442</v>
+        <v>2674.772521823641</v>
       </c>
       <c r="O35" t="n">
-        <v>2882.307825917464</v>
+        <v>2904.519938900663</v>
       </c>
       <c r="P35" t="n">
-        <v>3362.471651229163</v>
+        <v>3384.683764212362</v>
       </c>
       <c r="Q35" t="n">
-        <v>3645.83292736298</v>
+        <v>3668.045040346178</v>
       </c>
       <c r="R35" t="n">
-        <v>3668.045040346179</v>
+        <v>3668.045040346178</v>
       </c>
       <c r="S35" t="n">
-        <v>3601.06942650934</v>
+        <v>3601.069426509339</v>
       </c>
       <c r="T35" t="n">
-        <v>3468.866951806118</v>
+        <v>3468.866951806117</v>
       </c>
       <c r="U35" t="n">
-        <v>3296.222165593989</v>
+        <v>3296.222165593988</v>
       </c>
       <c r="V35" t="n">
-        <v>3046.177332559245</v>
+        <v>3046.177332559243</v>
       </c>
       <c r="W35" t="n">
-        <v>2774.426731597957</v>
+        <v>2774.426731597956</v>
       </c>
       <c r="X35" t="n">
-        <v>2481.979027645703</v>
+        <v>2481.979027645702</v>
       </c>
       <c r="Y35" t="n">
-        <v>2172.857749978718</v>
+        <v>2172.857749978717</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>112.6195432305381</v>
       </c>
       <c r="I36" t="n">
-        <v>73.36090080692358</v>
+        <v>73.36090080692357</v>
       </c>
       <c r="J36" t="n">
-        <v>209.8949428346959</v>
+        <v>85.06481784769115</v>
       </c>
       <c r="K36" t="n">
-        <v>569.874210597224</v>
+        <v>329.9266484820951</v>
       </c>
       <c r="L36" t="n">
-        <v>1115.315156591621</v>
+        <v>508.2356526260676</v>
       </c>
       <c r="M36" t="n">
-        <v>1342.750222307516</v>
+        <v>1196.718731454462</v>
       </c>
       <c r="N36" t="n">
-        <v>1590.613462374498</v>
+        <v>1919.130922121562</v>
       </c>
       <c r="O36" t="n">
-        <v>1915.681052711163</v>
+        <v>2123.657567569653</v>
       </c>
       <c r="P36" t="n">
-        <v>2375.776791781092</v>
+        <v>2583.753306639582</v>
       </c>
       <c r="Q36" t="n">
         <v>2630.640839417307</v>
@@ -7087,22 +7087,22 @@
         <v>183.7854158024418</v>
       </c>
       <c r="H37" t="n">
-        <v>111.9876904833283</v>
+        <v>111.9876904833285</v>
       </c>
       <c r="I37" t="n">
-        <v>73.36090080692358</v>
+        <v>73.36090080692357</v>
       </c>
       <c r="J37" t="n">
-        <v>146.4618812919734</v>
+        <v>146.4618812919733</v>
       </c>
       <c r="K37" t="n">
-        <v>345.343765976945</v>
+        <v>345.3437659769447</v>
       </c>
       <c r="L37" t="n">
-        <v>633.1642561908353</v>
+        <v>633.1642561908351</v>
       </c>
       <c r="M37" t="n">
-        <v>942.7032484903191</v>
+        <v>942.7032484903189</v>
       </c>
       <c r="N37" t="n">
         <v>1252.204804153529</v>
@@ -7114,7 +7114,7 @@
         <v>1752.162095781262</v>
       </c>
       <c r="Q37" t="n">
-        <v>1848.268039832556</v>
+        <v>1848.268039832555</v>
       </c>
       <c r="R37" t="n">
         <v>1806.08483913274</v>
@@ -7126,7 +7126,7 @@
         <v>1538.563293624334</v>
       </c>
       <c r="U37" t="n">
-        <v>1330.437998894105</v>
+        <v>1330.437998894106</v>
       </c>
       <c r="V37" t="n">
         <v>1156.771564997045</v>
@@ -7157,52 +7157,52 @@
         <v>1302.083857293913</v>
       </c>
       <c r="E38" t="n">
-        <v>997.3136590044953</v>
+        <v>997.3136590044955</v>
       </c>
       <c r="F38" t="n">
-        <v>667.3458085237141</v>
+        <v>667.3458085237144</v>
       </c>
       <c r="G38" t="n">
-        <v>331.6368652426381</v>
+        <v>331.6368652426382</v>
       </c>
       <c r="H38" t="n">
-        <v>98.12668524257228</v>
+        <v>98.12668524257222</v>
       </c>
       <c r="I38" t="n">
-        <v>73.3609008069236</v>
+        <v>73.36090080692358</v>
       </c>
       <c r="J38" t="n">
         <v>292.0125455760628</v>
       </c>
       <c r="K38" t="n">
-        <v>419.5555272954888</v>
+        <v>740.459485740942</v>
       </c>
       <c r="L38" t="n">
-        <v>1028.170238503242</v>
+        <v>1101.550175702609</v>
       </c>
       <c r="M38" t="n">
-        <v>1721.977917695198</v>
+        <v>1795.357854894564</v>
       </c>
       <c r="N38" t="n">
-        <v>2412.380132944263</v>
+        <v>2485.760070143629</v>
       </c>
       <c r="O38" t="n">
-        <v>3019.119729471403</v>
+        <v>3092.49966667077</v>
       </c>
       <c r="P38" t="n">
-        <v>3384.683764212364</v>
+        <v>3572.663491982469</v>
       </c>
       <c r="Q38" t="n">
-        <v>3668.04504034618</v>
+        <v>3645.832927362979</v>
       </c>
       <c r="R38" t="n">
-        <v>3668.04504034618</v>
+        <v>3668.045040346179</v>
       </c>
       <c r="S38" t="n">
-        <v>3601.069426509341</v>
+        <v>3601.069426509339</v>
       </c>
       <c r="T38" t="n">
-        <v>3468.866951806119</v>
+        <v>3468.866951806117</v>
       </c>
       <c r="U38" t="n">
         <v>3296.222165593989</v>
@@ -7248,28 +7248,28 @@
         <v>112.6195432305381</v>
       </c>
       <c r="I39" t="n">
-        <v>73.3609008069236</v>
+        <v>73.36090080692358</v>
       </c>
       <c r="J39" t="n">
-        <v>209.8949428346959</v>
+        <v>85.06481784769116</v>
       </c>
       <c r="K39" t="n">
-        <v>569.874210597224</v>
+        <v>445.0440856102192</v>
       </c>
       <c r="L39" t="n">
-        <v>1115.315156591621</v>
+        <v>990.4850316046163</v>
       </c>
       <c r="M39" t="n">
-        <v>1342.750222307516</v>
+        <v>1217.920097320511</v>
       </c>
       <c r="N39" t="n">
-        <v>1590.613462374498</v>
+        <v>1844.485366991138</v>
       </c>
       <c r="O39" t="n">
-        <v>1915.681052711163</v>
+        <v>2438.935708523191</v>
       </c>
       <c r="P39" t="n">
-        <v>2375.776791781092</v>
+        <v>2583.753306639582</v>
       </c>
       <c r="Q39" t="n">
         <v>2630.640839417307</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.9960173236029</v>
+        <v>560.9960173236027</v>
       </c>
       <c r="C40" t="n">
-        <v>473.0778887045224</v>
+        <v>473.0778887045221</v>
       </c>
       <c r="D40" t="n">
-        <v>403.979303601013</v>
+        <v>403.9793036010128</v>
       </c>
       <c r="E40" t="n">
-        <v>337.0842643274463</v>
+        <v>337.0842643274461</v>
       </c>
       <c r="F40" t="n">
-        <v>271.2123711383623</v>
+        <v>271.2123711383622</v>
       </c>
       <c r="G40" t="n">
-        <v>183.7854158024417</v>
+        <v>183.7854158024416</v>
       </c>
       <c r="H40" t="n">
         <v>111.9876904833284</v>
       </c>
       <c r="I40" t="n">
-        <v>73.3609008069236</v>
+        <v>73.36090080692358</v>
       </c>
       <c r="J40" t="n">
-        <v>146.4618812919733</v>
+        <v>146.4618812919735</v>
       </c>
       <c r="K40" t="n">
-        <v>345.3437659769447</v>
+        <v>345.343765976945</v>
       </c>
       <c r="L40" t="n">
-        <v>633.1642561908363</v>
+        <v>633.1642561908353</v>
       </c>
       <c r="M40" t="n">
-        <v>942.7032484903198</v>
+        <v>942.7032484903189</v>
       </c>
       <c r="N40" t="n">
-        <v>1252.20480415353</v>
+        <v>1252.204804153529</v>
       </c>
       <c r="O40" t="n">
         <v>1528.124980691711</v>
@@ -7351,7 +7351,7 @@
         <v>1752.162095781262</v>
       </c>
       <c r="Q40" t="n">
-        <v>1848.268039832556</v>
+        <v>1848.268039832555</v>
       </c>
       <c r="R40" t="n">
         <v>1806.08483913274</v>
@@ -7360,22 +7360,22 @@
         <v>1682.482957647336</v>
       </c>
       <c r="T40" t="n">
-        <v>1538.563293624334</v>
+        <v>1538.563293624333</v>
       </c>
       <c r="U40" t="n">
-        <v>1330.437998894106</v>
+        <v>1330.437998894105</v>
       </c>
       <c r="V40" t="n">
         <v>1156.771564997045</v>
       </c>
       <c r="W40" t="n">
-        <v>948.3724492689109</v>
+        <v>948.3724492689106</v>
       </c>
       <c r="X40" t="n">
-        <v>801.4009526797199</v>
+        <v>801.4009526797197</v>
       </c>
       <c r="Y40" t="n">
-        <v>661.6264278450162</v>
+        <v>661.626427845016</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1867.275964223423</v>
+        <v>1867.275964223422</v>
       </c>
       <c r="C41" t="n">
-        <v>1579.331501591838</v>
+        <v>1579.331501591837</v>
       </c>
       <c r="D41" t="n">
-        <v>1302.083857293914</v>
+        <v>1302.083857293912</v>
       </c>
       <c r="E41" t="n">
-        <v>997.313659004496</v>
+        <v>997.3136590044946</v>
       </c>
       <c r="F41" t="n">
-        <v>667.3458085237148</v>
+        <v>667.3458085237136</v>
       </c>
       <c r="G41" t="n">
-        <v>331.6368652426381</v>
+        <v>331.6368652426376</v>
       </c>
       <c r="H41" t="n">
-        <v>98.12668524257225</v>
+        <v>98.12668524257214</v>
       </c>
       <c r="I41" t="n">
-        <v>73.3609008069236</v>
+        <v>73.36090080692357</v>
       </c>
       <c r="J41" t="n">
         <v>292.0125455760628</v>
@@ -7418,43 +7418,43 @@
         <v>1349.074196948696</v>
       </c>
       <c r="M41" t="n">
-        <v>1607.378127124459</v>
+        <v>1597.863477982747</v>
       </c>
       <c r="N41" t="n">
-        <v>2297.780342373524</v>
+        <v>2288.265693231812</v>
       </c>
       <c r="O41" t="n">
-        <v>2904.519938900665</v>
+        <v>2895.005289758953</v>
       </c>
       <c r="P41" t="n">
-        <v>3384.683764212364</v>
+        <v>3362.471651229162</v>
       </c>
       <c r="Q41" t="n">
-        <v>3668.04504034618</v>
+        <v>3645.832927362979</v>
       </c>
       <c r="R41" t="n">
-        <v>3668.04504034618</v>
+        <v>3668.045040346178</v>
       </c>
       <c r="S41" t="n">
-        <v>3601.069426509341</v>
+        <v>3601.069426509338</v>
       </c>
       <c r="T41" t="n">
-        <v>3468.866951806119</v>
+        <v>3468.866951806117</v>
       </c>
       <c r="U41" t="n">
-        <v>3296.22216559399</v>
+        <v>3296.222165593987</v>
       </c>
       <c r="V41" t="n">
-        <v>3046.177332559246</v>
+        <v>3046.177332559243</v>
       </c>
       <c r="W41" t="n">
-        <v>2774.426731597958</v>
+        <v>2774.426731597956</v>
       </c>
       <c r="X41" t="n">
-        <v>2481.979027645704</v>
+        <v>2481.979027645702</v>
       </c>
       <c r="Y41" t="n">
-        <v>2172.857749978719</v>
+        <v>2172.857749978717</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>112.6195432305381</v>
       </c>
       <c r="I42" t="n">
-        <v>73.3609008069236</v>
+        <v>73.36090080692357</v>
       </c>
       <c r="J42" t="n">
-        <v>209.8949428346959</v>
+        <v>85.06481784769115</v>
       </c>
       <c r="K42" t="n">
-        <v>569.874210597224</v>
+        <v>445.0440856102192</v>
       </c>
       <c r="L42" t="n">
-        <v>1115.315156591621</v>
+        <v>990.4850316046163</v>
       </c>
       <c r="M42" t="n">
-        <v>1342.750222307516</v>
+        <v>1511.996872408</v>
       </c>
       <c r="N42" t="n">
-        <v>1590.613462374498</v>
+        <v>2234.4090630751</v>
       </c>
       <c r="O42" t="n">
-        <v>1915.681052711163</v>
+        <v>2438.935708523191</v>
       </c>
       <c r="P42" t="n">
-        <v>2375.776791781092</v>
+        <v>2583.753306639582</v>
       </c>
       <c r="Q42" t="n">
         <v>2630.640839417307</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.9960173236028</v>
+        <v>560.9960173236022</v>
       </c>
       <c r="C43" t="n">
-        <v>473.0778887045223</v>
+        <v>473.0778887045217</v>
       </c>
       <c r="D43" t="n">
-        <v>403.979303601013</v>
+        <v>403.9793036010125</v>
       </c>
       <c r="E43" t="n">
-        <v>337.0842643274462</v>
+        <v>337.0842643274459</v>
       </c>
       <c r="F43" t="n">
-        <v>271.2123711383622</v>
+        <v>271.212371138362</v>
       </c>
       <c r="G43" t="n">
-        <v>183.7854158024416</v>
+        <v>183.7854158024414</v>
       </c>
       <c r="H43" t="n">
-        <v>111.9876904833284</v>
+        <v>111.9876904833283</v>
       </c>
       <c r="I43" t="n">
-        <v>73.3609008069236</v>
+        <v>73.36090080692357</v>
       </c>
       <c r="J43" t="n">
         <v>146.4618812919734</v>
       </c>
       <c r="K43" t="n">
-        <v>345.3437659769448</v>
+        <v>345.343765976945</v>
       </c>
       <c r="L43" t="n">
-        <v>633.1642561908352</v>
+        <v>633.1642561908354</v>
       </c>
       <c r="M43" t="n">
-        <v>942.7032484903193</v>
+        <v>942.7032484903172</v>
       </c>
       <c r="N43" t="n">
-        <v>1252.204804153529</v>
+        <v>1252.204804153527</v>
       </c>
       <c r="O43" t="n">
-        <v>1528.124980691711</v>
+        <v>1528.124980691709</v>
       </c>
       <c r="P43" t="n">
-        <v>1752.162095781262</v>
+        <v>1752.16209578126</v>
       </c>
       <c r="Q43" t="n">
-        <v>1848.268039832555</v>
+        <v>1848.268039832554</v>
       </c>
       <c r="R43" t="n">
-        <v>1806.08483913274</v>
+        <v>1806.084839132739</v>
       </c>
       <c r="S43" t="n">
-        <v>1682.482957647336</v>
+        <v>1682.482957647335</v>
       </c>
       <c r="T43" t="n">
-        <v>1538.563293624334</v>
+        <v>1538.563293624333</v>
       </c>
       <c r="U43" t="n">
         <v>1330.437998894105</v>
       </c>
       <c r="V43" t="n">
-        <v>1156.771564997045</v>
+        <v>1156.771564997044</v>
       </c>
       <c r="W43" t="n">
-        <v>948.3724492689107</v>
+        <v>948.37244926891</v>
       </c>
       <c r="X43" t="n">
-        <v>801.4009526797198</v>
+        <v>801.4009526797191</v>
       </c>
       <c r="Y43" t="n">
-        <v>661.6264278450161</v>
+        <v>661.6264278450155</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.275964223423</v>
+        <v>1867.275964223421</v>
       </c>
       <c r="C44" t="n">
-        <v>1579.331501591837</v>
+        <v>1579.331501591836</v>
       </c>
       <c r="D44" t="n">
-        <v>1302.083857293913</v>
+        <v>1302.083857293912</v>
       </c>
       <c r="E44" t="n">
-        <v>997.3136590044954</v>
+        <v>997.3136590044942</v>
       </c>
       <c r="F44" t="n">
-        <v>667.3458085237143</v>
+        <v>667.3458085237137</v>
       </c>
       <c r="G44" t="n">
-        <v>331.6368652426381</v>
+        <v>331.6368652426377</v>
       </c>
       <c r="H44" t="n">
-        <v>98.12668524257225</v>
+        <v>98.12668524257214</v>
       </c>
       <c r="I44" t="n">
-        <v>73.3609008069236</v>
+        <v>73.36090080692357</v>
       </c>
       <c r="J44" t="n">
         <v>292.0125455760628</v>
@@ -7655,43 +7655,43 @@
         <v>1349.074196948696</v>
       </c>
       <c r="M44" t="n">
-        <v>1903.746735231028</v>
+        <v>2042.881876140651</v>
       </c>
       <c r="N44" t="n">
-        <v>2594.148950480093</v>
+        <v>2300.310636221852</v>
       </c>
       <c r="O44" t="n">
-        <v>3200.888547007233</v>
+        <v>2882.307825917464</v>
       </c>
       <c r="P44" t="n">
-        <v>3362.471651229164</v>
+        <v>3362.471651229162</v>
       </c>
       <c r="Q44" t="n">
-        <v>3645.832927362981</v>
+        <v>3645.832927362979</v>
       </c>
       <c r="R44" t="n">
-        <v>3668.04504034618</v>
+        <v>3668.045040346178</v>
       </c>
       <c r="S44" t="n">
-        <v>3601.06942650934</v>
+        <v>3601.069426509338</v>
       </c>
       <c r="T44" t="n">
-        <v>3468.866951806118</v>
+        <v>3468.866951806117</v>
       </c>
       <c r="U44" t="n">
-        <v>3296.222165593989</v>
+        <v>3296.222165593987</v>
       </c>
       <c r="V44" t="n">
-        <v>3046.177332559245</v>
+        <v>3046.177332559243</v>
       </c>
       <c r="W44" t="n">
-        <v>2774.426731597957</v>
+        <v>2774.426731597955</v>
       </c>
       <c r="X44" t="n">
-        <v>2481.979027645703</v>
+        <v>2481.979027645702</v>
       </c>
       <c r="Y44" t="n">
-        <v>2172.857749978718</v>
+        <v>2172.857749978716</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>112.6195432305381</v>
       </c>
       <c r="I45" t="n">
-        <v>73.3609008069236</v>
+        <v>73.36090080692357</v>
       </c>
       <c r="J45" t="n">
-        <v>209.8949428346959</v>
+        <v>85.06481784769115</v>
       </c>
       <c r="K45" t="n">
-        <v>569.874210597224</v>
+        <v>445.0440856102192</v>
       </c>
       <c r="L45" t="n">
-        <v>1115.315156591621</v>
+        <v>990.4850316046163</v>
       </c>
       <c r="M45" t="n">
-        <v>1342.750222307516</v>
+        <v>1217.920097320511</v>
       </c>
       <c r="N45" t="n">
-        <v>1590.613462374498</v>
+        <v>1940.332287987611</v>
       </c>
       <c r="O45" t="n">
-        <v>1915.681052711163</v>
+        <v>2438.935708523191</v>
       </c>
       <c r="P45" t="n">
-        <v>2375.776791781092</v>
+        <v>2583.753306639582</v>
       </c>
       <c r="Q45" t="n">
         <v>2630.640839417307</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.9960173236024</v>
+        <v>560.9960173236022</v>
       </c>
       <c r="C46" t="n">
-        <v>473.0778887045219</v>
+        <v>473.0778887045217</v>
       </c>
       <c r="D46" t="n">
         <v>403.9793036010125</v>
       </c>
       <c r="E46" t="n">
-        <v>337.0842643274458</v>
+        <v>337.0842643274459</v>
       </c>
       <c r="F46" t="n">
-        <v>271.2123711383618</v>
+        <v>271.212371138362</v>
       </c>
       <c r="G46" t="n">
-        <v>183.7854158024412</v>
+        <v>183.7854158024414</v>
       </c>
       <c r="H46" t="n">
-        <v>111.9876904833284</v>
+        <v>111.9876904833283</v>
       </c>
       <c r="I46" t="n">
-        <v>73.3609008069236</v>
+        <v>73.36090080692357</v>
       </c>
       <c r="J46" t="n">
-        <v>146.4618812919733</v>
+        <v>146.4618812919734</v>
       </c>
       <c r="K46" t="n">
-        <v>345.3437659769448</v>
+        <v>345.343765976945</v>
       </c>
       <c r="L46" t="n">
-        <v>633.1642561908349</v>
+        <v>633.1642561908354</v>
       </c>
       <c r="M46" t="n">
-        <v>942.7032484903182</v>
+        <v>942.7032484903172</v>
       </c>
       <c r="N46" t="n">
-        <v>1252.204804153529</v>
+        <v>1252.204804153527</v>
       </c>
       <c r="O46" t="n">
-        <v>1528.12498069171</v>
+        <v>1528.124980691709</v>
       </c>
       <c r="P46" t="n">
-        <v>1752.162095781261</v>
+        <v>1752.16209578126</v>
       </c>
       <c r="Q46" t="n">
         <v>1848.268039832554</v>
@@ -7843,13 +7843,13 @@
         <v>1156.771564997044</v>
       </c>
       <c r="W46" t="n">
-        <v>948.3724492689099</v>
+        <v>948.37244926891</v>
       </c>
       <c r="X46" t="n">
-        <v>801.400952679719</v>
+        <v>801.4009526797191</v>
       </c>
       <c r="Y46" t="n">
-        <v>661.6264278450157</v>
+        <v>661.6264278450155</v>
       </c>
     </row>
   </sheetData>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>314.2460573345609</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>279.2790792797986</v>
       </c>
       <c r="P11" t="n">
-        <v>262.660856909099</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>72.98380388751917</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>43.27994211217489</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>331.2370721414668</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>281.6147877253822</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>304.7546061777095</v>
       </c>
       <c r="P12" t="n">
-        <v>311.9980125799607</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>140.8519432137694</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>140.8812770011136</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>175.0995679318866</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>43.27994211217489</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,16 +9012,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>121.7585301904788</v>
+        <v>422.6349416661442</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>143.6773925046804</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>175.0995679318866</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>392.3382806910875</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>282.6566951414134</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>43.27994211217489</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,22 +9240,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>422.6349416661442</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>89.67986087732183</v>
       </c>
       <c r="O18" t="n">
-        <v>121.7585301904788</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9401,28 +9401,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>401.0650272033595</v>
       </c>
       <c r="N20" t="n">
-        <v>118.4447992403062</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>118.2697266608173</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>43.27994211217489</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>121.7585301904788</v>
+        <v>55.92643114714508</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>402.000422119591</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>175.0995679318856</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>161.2864369742219</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>43.27994211217489</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>422.6349416661442</v>
+        <v>422.634941666144</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>66.65788690405199</v>
       </c>
       <c r="O24" t="n">
-        <v>334.4291708403724</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>124.4185751776835</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>296.8063780386261</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9960,13 +9960,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>26.8938117439383</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>13.25650115038539</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10112,16 +10112,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>301.9038503375825</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>187.3226605270477</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>43.27994211217495</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>308.8138439530577</v>
       </c>
       <c r="M30" t="n">
-        <v>121.7585301904803</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>156.2708941200659</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>199.4892696078974</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>435.4214492352899</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>121.7585301904792</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>242.6063392890694</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>378.2443288906953</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>43.27994211217489</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>148.1849974892209</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>121.7585301904792</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,10 +10823,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>167.636950665514</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>206.0413439586153</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>43.27994211217489</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>382.5273026299444</v>
       </c>
       <c r="O39" t="n">
-        <v>121.7585301904792</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>9.610756708800039</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>308.9729871194734</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>43.27994211217489</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>297.0472475631202</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>121.7585301904792</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,16 +11303,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>308.9729871194752</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>355.8078511298878</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>121.7585301904792</v>
+        <v>297.0472475631204</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>234.4568549899876</v>
       </c>
       <c r="D11" t="n">
-        <v>282.6671820337738</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>340.5438680270943</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>239.3670923788941</v>
+        <v>239.367092378894</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>74.49787187730001</v>
       </c>
       <c r="T11" t="n">
-        <v>139.0724641350187</v>
+        <v>139.0724641350186</v>
       </c>
       <c r="U11" t="n">
-        <v>162.5692704268105</v>
+        <v>179.1103525288368</v>
       </c>
       <c r="V11" t="n">
         <v>255.7363988832257</v>
@@ -23321,7 +23321,7 @@
         <v>277.2251091305038</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>297.7152410915598</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>74.41810305965994</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>94.74469996139035</v>
+        <v>70.93268570331742</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>49.95338287164611</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>100.5594716732352</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>293.2570321840984</v>
+        <v>293.2570321840983</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>282.6671820337737</v>
       </c>
       <c r="E14" t="n">
-        <v>309.9145104853526</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>31.93139332466144</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>32.71014077012108</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>74.4978718773</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>179.1103525288368</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>255.7363988832257</v>
       </c>
       <c r="W14" t="n">
-        <v>249.0235878410072</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>297.7152410915598</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.8161205950281</v>
+        <v>64.74629478524537</v>
       </c>
       <c r="C16" t="n">
-        <v>87.48805103959747</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>130.557876849379</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1134802.948669481</v>
+        <v>1134802.948669479</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1415280.973091623</v>
+        <v>1415280.973091622</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1415280.973091623</v>
+        <v>1415280.973091622</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1415280.973091623</v>
+        <v>1415280.973091622</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1415280.973091623</v>
+        <v>1415280.973091622</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122891.4508075557</v>
+        <v>122891.4508075558</v>
       </c>
       <c r="C2" t="n">
-        <v>122891.4508075557</v>
+        <v>122891.4508075558</v>
       </c>
       <c r="D2" t="n">
-        <v>122891.4508075557</v>
+        <v>122891.4508075558</v>
       </c>
       <c r="E2" t="n">
-        <v>102188.824724675</v>
+        <v>102188.8247246749</v>
       </c>
       <c r="F2" t="n">
-        <v>108723.2406248298</v>
+        <v>108723.2406248297</v>
       </c>
       <c r="G2" t="n">
         <v>123156.2654796426</v>
       </c>
       <c r="H2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="I2" t="n">
         <v>123156.2654796426</v>
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>758470.6231047803</v>
+        <v>758470.6231047799</v>
       </c>
       <c r="F3" t="n">
-        <v>40405.9406280303</v>
+        <v>40405.94062803077</v>
       </c>
       <c r="G3" t="n">
+        <v>64166.29901259056</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>69242.49610914133</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>64166.29901259053</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>69242.4961091413</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>64166.29901259048</v>
-      </c>
       <c r="M3" t="n">
-        <v>127429.7619811891</v>
+        <v>127429.7619811886</v>
       </c>
       <c r="N3" t="n">
-        <v>34539.64324424862</v>
+        <v>34539.64324424904</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>131220.3499918507</v>
+        <v>131220.3499918506</v>
       </c>
       <c r="F4" t="n">
-        <v>143624.3033064806</v>
+        <v>143624.3033064807</v>
       </c>
       <c r="G4" t="n">
         <v>198367.7793949389</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>52018.86662308703</v>
+        <v>52018.86662308694</v>
       </c>
       <c r="F5" t="n">
-        <v>60592.89198268526</v>
+        <v>60592.89198268527</v>
       </c>
       <c r="G5" t="n">
         <v>67335.88772229711</v>
@@ -26488,28 +26488,28 @@
         <v>67335.88772229711</v>
       </c>
       <c r="I5" t="n">
-        <v>67335.88772229711</v>
+        <v>67335.88772229709</v>
       </c>
       <c r="J5" t="n">
-        <v>77371.9372942351</v>
+        <v>77371.93729423507</v>
       </c>
       <c r="K5" t="n">
+        <v>77371.93729423509</v>
+      </c>
+      <c r="L5" t="n">
+        <v>77371.93729423509</v>
+      </c>
+      <c r="M5" t="n">
         <v>77371.93729423507</v>
       </c>
-      <c r="L5" t="n">
-        <v>77371.9372942351</v>
-      </c>
-      <c r="M5" t="n">
-        <v>77371.93729423509</v>
-      </c>
       <c r="N5" t="n">
-        <v>77371.9372942351</v>
+        <v>77371.93729423507</v>
       </c>
       <c r="O5" t="n">
-        <v>77371.9372942351</v>
+        <v>77371.93729423507</v>
       </c>
       <c r="P5" t="n">
-        <v>77371.9372942351</v>
+        <v>77371.93729423507</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336259.2883585477</v>
+        <v>-336263.7019364159</v>
       </c>
       <c r="C6" t="n">
-        <v>-336259.2883585478</v>
+        <v>-336263.7019364159</v>
       </c>
       <c r="D6" t="n">
-        <v>-336259.2883585477</v>
+        <v>-336263.7019364159</v>
       </c>
       <c r="E6" t="n">
-        <v>-839521.0149950429</v>
+        <v>-839870.4723409587</v>
       </c>
       <c r="F6" t="n">
-        <v>-135899.8952923664</v>
+        <v>-136140.4457066139</v>
       </c>
       <c r="G6" t="n">
         <v>-206713.700650184</v>
       </c>
       <c r="H6" t="n">
+        <v>-142547.4016375935</v>
+      </c>
+      <c r="I6" t="n">
         <v>-142547.4016375934</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-142547.4016375933</v>
       </c>
       <c r="J6" t="n">
         <v>-206765.3018440587</v>
@@ -26549,13 +26549,13 @@
         <v>-137522.8057349173</v>
       </c>
       <c r="L6" t="n">
-        <v>-201689.1047475078</v>
+        <v>-201689.1047475079</v>
       </c>
       <c r="M6" t="n">
-        <v>-264952.5677161064</v>
+        <v>-264952.5677161058</v>
       </c>
       <c r="N6" t="n">
-        <v>-172062.4489791659</v>
+        <v>-172062.4489791663</v>
       </c>
       <c r="O6" t="n">
         <v>-137522.8057349174</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="F2" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="G2" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="H2" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="I2" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="J2" t="n">
         <v>80.20787376573817</v>
       </c>
       <c r="K2" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="L2" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="M2" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="N2" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="O2" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="P2" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
     </row>
     <row r="3">
@@ -26759,10 +26759,10 @@
         <v>682.3237129064829</v>
       </c>
       <c r="J3" t="n">
+        <v>682.3237129064828</v>
+      </c>
+      <c r="K3" t="n">
         <v>682.3237129064829</v>
-      </c>
-      <c r="K3" t="n">
-        <v>682.3237129064827</v>
       </c>
       <c r="L3" t="n">
         <v>682.3237129064829</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>511.3471773373986</v>
+        <v>511.347177337397</v>
       </c>
       <c r="F4" t="n">
         <v>652.367331278159</v>
@@ -26808,28 +26808,28 @@
         <v>652.367331278159</v>
       </c>
       <c r="I4" t="n">
-        <v>652.367331278159</v>
+        <v>652.3673312781588</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0112600865448</v>
+        <v>917.0112600865447</v>
       </c>
       <c r="K4" t="n">
         <v>917.0112600865447</v>
       </c>
       <c r="L4" t="n">
-        <v>917.011260086545</v>
+        <v>917.0112600865449</v>
       </c>
       <c r="M4" t="n">
-        <v>917.0112600865448</v>
+        <v>917.0112600865446</v>
       </c>
       <c r="N4" t="n">
-        <v>917.011260086545</v>
+        <v>917.0112600865447</v>
       </c>
       <c r="O4" t="n">
-        <v>917.011260086545</v>
+        <v>917.0112600865446</v>
       </c>
       <c r="P4" t="n">
-        <v>917.011260086545</v>
+        <v>917.0112600865446</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>80.2078737657382</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>80.20787376573817</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>80.2078737657381</v>
-      </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>511.3471773373986</v>
+        <v>511.347177337397</v>
       </c>
       <c r="F4" t="n">
-        <v>141.0201539407603</v>
+        <v>141.020153940762</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>264.6439288083858</v>
+        <v>264.6439288083859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.3471773373984</v>
+        <v>511.3471773373967</v>
       </c>
       <c r="N4" t="n">
-        <v>141.0201539407606</v>
+        <v>141.0201539407621</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.20787376573817</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.3471773373986</v>
+        <v>511.347177337397</v>
       </c>
       <c r="N4" t="n">
-        <v>141.0201539407603</v>
+        <v>141.020153940762</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="C11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="D11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="E11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="F11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="G11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="H11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="I11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="T11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="U11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="V11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="W11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="X11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="Y11" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
     </row>
     <row r="12">
@@ -28166,16 +28166,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.01585958690917</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="D12" t="n">
-        <v>4.293940305560511</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>43.15999630494488</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="I12" t="n">
-        <v>38.86605599937836</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,22 +28220,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>72.01585958690917</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="V12" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="W12" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="X12" t="n">
-        <v>72.01585958690917</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="C13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="D13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="E13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="F13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="G13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="H13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="I13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="J13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="K13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="L13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="M13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="N13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="O13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="P13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="R13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="S13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="T13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="U13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="V13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="W13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="X13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="Y13" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="C14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="D14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="E14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="F14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="G14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="H14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="I14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="T14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="U14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="V14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="W14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="X14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="Y14" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="C16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="D16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="E16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="F16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="G16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="H16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="I16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="J16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="K16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="L16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="M16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="N16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="O16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="P16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="R16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="S16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="T16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="U16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="V16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="W16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="X16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
       <c r="Y16" t="n">
-        <v>72.01585958690917</v>
+        <v>72.01585958690923</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="C17" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="D17" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="E17" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="F17" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="G17" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="H17" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="I17" t="n">
         <v>104.7260003570303</v>
@@ -28615,22 +28615,22 @@
         <v>146.5137314642092</v>
       </c>
       <c r="T17" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="U17" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="V17" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="W17" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="X17" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="Y17" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
     </row>
     <row r="18">
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="C19" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>4.627973150334867</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -28734,16 +28734,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>13.6686215021985</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.2876218316602</v>
       </c>
       <c r="I19" t="n">
         <v>118.4483955453788</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.368499538415122</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>121.9692424585553</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="T19" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2237333526473</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="W19" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="X19" t="n">
-        <v>152.2237333526473</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="C20" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="D20" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="E20" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="F20" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="G20" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="H20" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="I20" t="n">
         <v>104.7260003570303</v>
@@ -28852,22 +28852,22 @@
         <v>146.5137314642092</v>
       </c>
       <c r="T20" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="U20" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="V20" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="W20" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="X20" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="Y20" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="C22" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28971,16 +28971,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>13.6686215021985</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.2876218316602</v>
       </c>
       <c r="I22" t="n">
         <v>118.4483955453788</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.368499538415122</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>121.9692424585553</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="T22" t="n">
-        <v>152.2237333526473</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="V22" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="X22" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.2237333526473</v>
+        <v>8.236233484770167</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="C23" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="D23" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="E23" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="F23" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="G23" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="H23" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="I23" t="n">
         <v>104.7260003570303</v>
@@ -29089,22 +29089,22 @@
         <v>146.5137314642092</v>
       </c>
       <c r="T23" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="U23" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="V23" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="W23" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="X23" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="Y23" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
     </row>
     <row r="24">
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.2237333526473</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>10.99647268875015</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29208,7 +29208,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="H25" t="n">
         <v>151.2876218316602</v>
@@ -29217,7 +29217,7 @@
         <v>118.4483955453788</v>
       </c>
       <c r="J25" t="n">
-        <v>6.368499538415122</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>121.9692424585553</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="T25" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="X25" t="n">
-        <v>8.236233484770565</v>
+        <v>152.2237333526474</v>
       </c>
       <c r="Y25" t="n">
-        <v>152.2237333526473</v>
+        <v>152.2237333526474</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="C29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="D29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="E29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="F29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="G29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="H29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="I29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="T29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="U29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="V29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="W29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="X29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="C31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="D31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="E31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="F31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="G31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="H31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="I31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="J31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="K31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="L31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="M31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="N31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="O31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="P31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="R31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="S31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="T31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="U31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="V31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="W31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="X31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.20787376573819</v>
+        <v>80.20787376573817</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="C32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="D32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="E32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="F32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="G32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="H32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="I32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="T32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="U32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="V32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="W32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="X32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="C34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="D34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="E34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="F34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="G34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="H34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="I34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="J34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="K34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="L34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="M34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="N34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="O34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="P34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="R34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="S34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="T34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="U34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="V34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="W34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="X34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573814</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="C35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="D35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="E35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="F35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="G35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="H35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="I35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="T35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="U35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="V35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="W35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="X35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="C37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="D37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="E37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="F37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="G37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="H37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="I37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="J37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="K37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="L37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="M37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="N37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="O37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="P37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="R37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="S37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="T37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="U37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="V37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="W37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="X37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573813</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="C38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="D38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="E38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="F38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="G38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="H38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="I38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="T38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="U38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="V38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="W38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="X38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="C40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="D40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="E40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="F40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="G40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="H40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="I40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="J40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573824</v>
       </c>
       <c r="K40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="L40" t="n">
-        <v>80.20787376573938</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="M40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="N40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="O40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="P40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="R40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="S40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="T40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="U40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="V40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="W40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="X40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573813</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="C41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="D41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="E41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="F41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="G41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="H41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="I41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="T41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="U41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="V41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="W41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="X41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="C43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="D43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="E43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="F43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="G43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="H43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="I43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="J43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="K43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="L43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="M43" t="n">
-        <v>80.2078737657387</v>
+        <v>80.20787376573631</v>
       </c>
       <c r="N43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="O43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="P43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="R43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="S43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="T43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="U43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="V43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="W43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="X43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="C44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="D44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="E44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="F44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="G44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="H44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="I44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="T44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="U44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="V44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="W44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="X44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="C46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="D46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="E46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="F46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="G46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="H46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="I46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="J46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="K46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="L46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="M46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.20787376573631</v>
       </c>
       <c r="N46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="O46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="P46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="R46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="S46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="T46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="U46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="V46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="W46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="X46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.20787376573811</v>
+        <v>80.2078737657382</v>
       </c>
     </row>
   </sheetData>
@@ -32938,31 +32938,31 @@
         <v>2.743009901131587</v>
       </c>
       <c r="H26" t="n">
-        <v>28.09185014996388</v>
+        <v>28.09185014996387</v>
       </c>
       <c r="I26" t="n">
         <v>105.7498892133756</v>
       </c>
       <c r="J26" t="n">
-        <v>232.8095365961673</v>
+        <v>232.8095365961672</v>
       </c>
       <c r="K26" t="n">
-        <v>348.9211457110675</v>
+        <v>348.9211457110674</v>
       </c>
       <c r="L26" t="n">
-        <v>432.8675349728234</v>
+        <v>432.8675349728233</v>
       </c>
       <c r="M26" t="n">
         <v>481.6485373020722</v>
       </c>
       <c r="N26" t="n">
-        <v>489.4421141836624</v>
+        <v>489.4421141836623</v>
       </c>
       <c r="O26" t="n">
         <v>462.1663094792851</v>
       </c>
       <c r="P26" t="n">
-        <v>394.448252545099</v>
+        <v>394.4482525450989</v>
       </c>
       <c r="Q26" t="n">
         <v>296.2142104608239</v>
@@ -32977,7 +32977,7 @@
         <v>12.00752584220353</v>
       </c>
       <c r="U26" t="n">
-        <v>0.219440792090527</v>
+        <v>0.2194407920905269</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>14.17430958320826</v>
       </c>
       <c r="I27" t="n">
-        <v>50.53057685203672</v>
+        <v>50.5305768520367</v>
       </c>
       <c r="J27" t="n">
         <v>138.6597650916844</v>
@@ -33035,28 +33035,28 @@
         <v>371.8664235340331</v>
       </c>
       <c r="N27" t="n">
-        <v>381.7086212419013</v>
+        <v>381.7086212419012</v>
       </c>
       <c r="O27" t="n">
-        <v>349.1888156041319</v>
+        <v>349.1888156041318</v>
       </c>
       <c r="P27" t="n">
-        <v>280.2548095520987</v>
+        <v>280.2548095520986</v>
       </c>
       <c r="Q27" t="n">
-        <v>187.3429183059461</v>
+        <v>187.342918305946</v>
       </c>
       <c r="R27" t="n">
-        <v>91.12240075381298</v>
+        <v>91.12240075381297</v>
       </c>
       <c r="S27" t="n">
         <v>27.26076343546182</v>
       </c>
       <c r="T27" t="n">
-        <v>5.915617850576015</v>
+        <v>5.915617850576014</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09655524239242687</v>
+        <v>0.09655524239242685</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,13 +33096,13 @@
         <v>1.230419810159231</v>
       </c>
       <c r="H28" t="n">
-        <v>10.93955067577936</v>
+        <v>10.93955067577935</v>
       </c>
       <c r="I28" t="n">
-        <v>37.00207938187944</v>
+        <v>37.00207938187943</v>
       </c>
       <c r="J28" t="n">
-        <v>86.99068057825765</v>
+        <v>86.99068057825764</v>
       </c>
       <c r="K28" t="n">
         <v>142.952410671227</v>
@@ -33120,22 +33120,22 @@
         <v>173.9142473486885</v>
       </c>
       <c r="P28" t="n">
-        <v>148.8136832214401</v>
+        <v>148.81368322144</v>
       </c>
       <c r="Q28" t="n">
         <v>103.0308806488789</v>
       </c>
       <c r="R28" t="n">
-        <v>55.32414891861415</v>
+        <v>55.32414891861414</v>
       </c>
       <c r="S28" t="n">
         <v>21.44286160068405</v>
       </c>
       <c r="T28" t="n">
-        <v>5.25724827977126</v>
+        <v>5.257248279771259</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06711380782686724</v>
+        <v>0.06711380782686723</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.743009901131586</v>
+        <v>2.743009901131587</v>
       </c>
       <c r="H29" t="n">
-        <v>28.09185014996387</v>
+        <v>28.09185014996388</v>
       </c>
       <c r="I29" t="n">
         <v>105.7498892133756</v>
       </c>
       <c r="J29" t="n">
-        <v>232.8095365961672</v>
+        <v>232.8095365961673</v>
       </c>
       <c r="K29" t="n">
-        <v>348.9211457110673</v>
+        <v>348.9211457110675</v>
       </c>
       <c r="L29" t="n">
-        <v>432.8675349728233</v>
+        <v>432.8675349728234</v>
       </c>
       <c r="M29" t="n">
-        <v>481.648537302072</v>
+        <v>481.6485373020722</v>
       </c>
       <c r="N29" t="n">
-        <v>489.4421141836622</v>
+        <v>489.4421141836624</v>
       </c>
       <c r="O29" t="n">
-        <v>462.166309479285</v>
+        <v>462.1663094792851</v>
       </c>
       <c r="P29" t="n">
-        <v>394.4482525450989</v>
+        <v>394.448252545099</v>
       </c>
       <c r="Q29" t="n">
-        <v>296.2142104608238</v>
+        <v>296.2142104608239</v>
       </c>
       <c r="R29" t="n">
         <v>172.3055957019572</v>
       </c>
       <c r="S29" t="n">
-        <v>62.50633812203609</v>
+        <v>62.50633812203611</v>
       </c>
       <c r="T29" t="n">
         <v>12.00752584220353</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2194407920905269</v>
+        <v>0.219440792090527</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.467639684364887</v>
+        <v>1.467639684364888</v>
       </c>
       <c r="H30" t="n">
         <v>14.17430958320826</v>
       </c>
       <c r="I30" t="n">
-        <v>50.5305768520367</v>
+        <v>50.53057685203672</v>
       </c>
       <c r="J30" t="n">
         <v>138.6597650916844</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9916239441318</v>
+        <v>236.9916239441319</v>
       </c>
       <c r="L30" t="n">
-        <v>318.6644849758059</v>
+        <v>318.664484975806</v>
       </c>
       <c r="M30" t="n">
-        <v>371.866423534033</v>
+        <v>371.8664235340331</v>
       </c>
       <c r="N30" t="n">
-        <v>381.7086212419011</v>
+        <v>381.7086212419013</v>
       </c>
       <c r="O30" t="n">
-        <v>349.1888156041318</v>
+        <v>349.1888156041319</v>
       </c>
       <c r="P30" t="n">
-        <v>280.2548095520985</v>
+        <v>280.2548095520987</v>
       </c>
       <c r="Q30" t="n">
-        <v>187.342918305946</v>
+        <v>187.3429183059461</v>
       </c>
       <c r="R30" t="n">
-        <v>91.12240075381295</v>
+        <v>91.12240075381298</v>
       </c>
       <c r="S30" t="n">
-        <v>27.26076343546181</v>
+        <v>27.26076343546182</v>
       </c>
       <c r="T30" t="n">
-        <v>5.915617850576013</v>
+        <v>5.915617850576015</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09655524239242684</v>
+        <v>0.09655524239242687</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,22 +33333,22 @@
         <v>1.230419810159231</v>
       </c>
       <c r="H31" t="n">
-        <v>10.93955067577935</v>
+        <v>10.93955067577936</v>
       </c>
       <c r="I31" t="n">
-        <v>37.00207938187943</v>
+        <v>37.00207938187944</v>
       </c>
       <c r="J31" t="n">
-        <v>86.99068057825762</v>
+        <v>86.99068057825765</v>
       </c>
       <c r="K31" t="n">
         <v>142.952410671227</v>
       </c>
       <c r="L31" t="n">
-        <v>182.9298688667642</v>
+        <v>182.9298688667643</v>
       </c>
       <c r="M31" t="n">
-        <v>192.8738980597783</v>
+        <v>192.8738980597784</v>
       </c>
       <c r="N31" t="n">
         <v>188.2877878582759</v>
@@ -33357,22 +33357,22 @@
         <v>173.9142473486885</v>
       </c>
       <c r="P31" t="n">
-        <v>148.81368322144</v>
+        <v>148.8136832214401</v>
       </c>
       <c r="Q31" t="n">
         <v>103.0308806488789</v>
       </c>
       <c r="R31" t="n">
-        <v>55.32414891861414</v>
+        <v>55.32414891861415</v>
       </c>
       <c r="S31" t="n">
-        <v>21.44286160068404</v>
+        <v>21.44286160068405</v>
       </c>
       <c r="T31" t="n">
-        <v>5.257248279771258</v>
+        <v>5.25724827977126</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06711380782686723</v>
+        <v>0.06711380782686724</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>220.8602472415548</v>
+        <v>51.76363206948099</v>
       </c>
       <c r="K11" t="n">
         <v>128.8312946660869</v>
       </c>
       <c r="L11" t="n">
-        <v>197.1011200028361</v>
+        <v>511.347177337397</v>
       </c>
       <c r="M11" t="n">
         <v>251.3023040747995</v>
@@ -35422,16 +35422,16 @@
         <v>260.0290505870715</v>
       </c>
       <c r="O11" t="n">
-        <v>232.0680980575984</v>
+        <v>511.347177337397</v>
       </c>
       <c r="P11" t="n">
-        <v>425.8761136989285</v>
+        <v>163.2152567898295</v>
       </c>
       <c r="Q11" t="n">
-        <v>286.2235112462791</v>
+        <v>146.8923244738936</v>
       </c>
       <c r="R11" t="n">
-        <v>22.43647776080755</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11.82213842501776</v>
+        <v>137.9131737654266</v>
       </c>
       <c r="K12" t="n">
         <v>99.15018496977294</v>
       </c>
       <c r="L12" t="n">
-        <v>511.3471773373986</v>
+        <v>180.1101051959319</v>
       </c>
       <c r="M12" t="n">
-        <v>229.7323896120148</v>
+        <v>511.347177337397</v>
       </c>
       <c r="N12" t="n">
         <v>250.3669091585679</v>
       </c>
       <c r="O12" t="n">
-        <v>206.5925711596875</v>
+        <v>511.347177337397</v>
       </c>
       <c r="P12" t="n">
-        <v>458.2784147177292</v>
+        <v>146.2804021377684</v>
       </c>
       <c r="Q12" t="n">
-        <v>257.4384319557736</v>
+        <v>188.2130874336939</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.64736004849405</v>
+        <v>65.64736004849411</v>
       </c>
       <c r="K13" t="n">
-        <v>192.6987784322533</v>
+        <v>192.6987784322534</v>
       </c>
       <c r="L13" t="n">
-        <v>282.5357537139896</v>
+        <v>282.5357537139897</v>
       </c>
       <c r="M13" t="n">
-        <v>304.4736346085281</v>
+        <v>304.4736346085282</v>
       </c>
       <c r="N13" t="n">
-        <v>304.4358198244137</v>
+        <v>304.4358198244138</v>
       </c>
       <c r="O13" t="n">
         <v>270.5152348496374</v>
       </c>
       <c r="P13" t="n">
-        <v>218.1081020732427</v>
+        <v>218.1081020732428</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.88469698409371</v>
+        <v>88.88469698409376</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>220.8602472415548</v>
       </c>
       <c r="K14" t="n">
-        <v>128.8312946660869</v>
+        <v>452.9767072372517</v>
       </c>
       <c r="L14" t="n">
         <v>197.1011200028361</v>
@@ -35656,10 +35656,10 @@
         <v>251.3023040747995</v>
       </c>
       <c r="N14" t="n">
-        <v>400.9103275881851</v>
+        <v>260.0290505870715</v>
       </c>
       <c r="O14" t="n">
-        <v>612.8682793203437</v>
+        <v>407.167665989485</v>
       </c>
       <c r="P14" t="n">
         <v>485.0139649613121</v>
@@ -35668,7 +35668,7 @@
         <v>286.2235112462791</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>22.43647776080755</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9131737654266</v>
+        <v>11.82213842501776</v>
       </c>
       <c r="K15" t="n">
         <v>363.6154219823516</v>
@@ -35732,16 +35732,16 @@
         <v>550.9504504993911</v>
       </c>
       <c r="M15" t="n">
-        <v>351.4909198024936</v>
+        <v>652.367331278159</v>
       </c>
       <c r="N15" t="n">
         <v>250.3669091585679</v>
       </c>
       <c r="O15" t="n">
-        <v>206.5925711596875</v>
+        <v>350.2699636643679</v>
       </c>
       <c r="P15" t="n">
-        <v>464.7431707777056</v>
+        <v>146.2804021377684</v>
       </c>
       <c r="Q15" t="n">
         <v>257.4384319557736</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.64736004849405</v>
+        <v>65.64736004849411</v>
       </c>
       <c r="K16" t="n">
-        <v>192.6987784322533</v>
+        <v>192.6987784322534</v>
       </c>
       <c r="L16" t="n">
-        <v>282.5357537139896</v>
+        <v>282.5357537139897</v>
       </c>
       <c r="M16" t="n">
-        <v>304.4736346085281</v>
+        <v>304.4736346085282</v>
       </c>
       <c r="N16" t="n">
-        <v>304.4358198244137</v>
+        <v>304.4358198244138</v>
       </c>
       <c r="O16" t="n">
         <v>270.5152348496374</v>
       </c>
       <c r="P16" t="n">
-        <v>218.1081020732427</v>
+        <v>218.1081020732428</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.88469698409371</v>
+        <v>88.88469698409376</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>220.8602472415548</v>
       </c>
       <c r="K17" t="n">
-        <v>452.9767072372517</v>
+        <v>128.8312946660869</v>
       </c>
       <c r="L17" t="n">
         <v>197.1011200028361</v>
       </c>
       <c r="M17" t="n">
-        <v>426.4018720066861</v>
+        <v>251.3023040747995</v>
       </c>
       <c r="N17" t="n">
-        <v>260.0290505870715</v>
+        <v>652.367331278159</v>
       </c>
       <c r="O17" t="n">
-        <v>232.0680980575984</v>
+        <v>612.8682793203437</v>
       </c>
       <c r="P17" t="n">
-        <v>485.0139649613121</v>
+        <v>445.8719519312429</v>
       </c>
       <c r="Q17" t="n">
-        <v>286.2235112462791</v>
+        <v>73.90852058637446</v>
       </c>
       <c r="R17" t="n">
-        <v>22.43647776080755</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9131737654266</v>
+        <v>11.82213842501776</v>
       </c>
       <c r="K18" t="n">
-        <v>363.6154219823516</v>
+        <v>99.15018496977294</v>
       </c>
       <c r="L18" t="n">
         <v>550.9504504993911</v>
       </c>
       <c r="M18" t="n">
-        <v>229.7323896120148</v>
+        <v>652.367331278159</v>
       </c>
       <c r="N18" t="n">
-        <v>250.3669091585679</v>
+        <v>340.0467700358898</v>
       </c>
       <c r="O18" t="n">
-        <v>328.3511013501662</v>
+        <v>206.5925711596875</v>
       </c>
       <c r="P18" t="n">
         <v>464.7431707777056</v>
@@ -36121,28 +36121,28 @@
         <v>220.8602472415548</v>
       </c>
       <c r="K20" t="n">
-        <v>128.8312946660869</v>
+        <v>452.9767072372517</v>
       </c>
       <c r="L20" t="n">
         <v>197.1011200028361</v>
       </c>
       <c r="M20" t="n">
-        <v>251.3023040747995</v>
+        <v>652.367331278159</v>
       </c>
       <c r="N20" t="n">
-        <v>378.4738498273776</v>
+        <v>260.0290505870715</v>
       </c>
       <c r="O20" t="n">
-        <v>612.8682793203437</v>
+        <v>350.3378247184157</v>
       </c>
       <c r="P20" t="n">
-        <v>485.0139649613121</v>
+        <v>163.2152567898295</v>
       </c>
       <c r="Q20" t="n">
         <v>286.2235112462791</v>
       </c>
       <c r="R20" t="n">
-        <v>22.43647776080755</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9131737654266</v>
+        <v>11.82213842501776</v>
       </c>
       <c r="K21" t="n">
         <v>363.6154219823516</v>
@@ -36206,10 +36206,10 @@
         <v>550.9504504993911</v>
       </c>
       <c r="M21" t="n">
-        <v>351.4909198024936</v>
+        <v>285.6588207591599</v>
       </c>
       <c r="N21" t="n">
-        <v>250.3669091585679</v>
+        <v>652.367331278159</v>
       </c>
       <c r="O21" t="n">
         <v>206.5925711596875</v>
@@ -36218,7 +36218,7 @@
         <v>464.7431707777056</v>
       </c>
       <c r="Q21" t="n">
-        <v>257.4384319557736</v>
+        <v>47.36114421992454</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51.76363206948099</v>
+        <v>220.8602472415548</v>
       </c>
       <c r="K23" t="n">
         <v>452.9767072372517</v>
       </c>
       <c r="L23" t="n">
-        <v>614.7623345532866</v>
+        <v>197.1011200028361</v>
       </c>
       <c r="M23" t="n">
         <v>251.3023040747995</v>
@@ -36370,16 +36370,16 @@
         <v>260.0290505870715</v>
       </c>
       <c r="O23" t="n">
-        <v>232.0680980575984</v>
+        <v>407.167665989484</v>
       </c>
       <c r="P23" t="n">
         <v>485.0139649613121</v>
       </c>
       <c r="Q23" t="n">
-        <v>235.1949575605964</v>
+        <v>286.2235112462791</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>22.43647776080755</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9131737654266</v>
+        <v>11.82213842501776</v>
       </c>
       <c r="K24" t="n">
         <v>99.15018496977294</v>
@@ -36443,13 +36443,13 @@
         <v>180.1101051959319</v>
       </c>
       <c r="M24" t="n">
-        <v>652.367331278159</v>
+        <v>652.3673312781588</v>
       </c>
       <c r="N24" t="n">
-        <v>250.3669091585679</v>
+        <v>317.0247960626199</v>
       </c>
       <c r="O24" t="n">
-        <v>541.0217420000598</v>
+        <v>600.4548904364169</v>
       </c>
       <c r="P24" t="n">
         <v>464.7431707777056</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.8602472415548</v>
+        <v>51.76363206948096</v>
       </c>
       <c r="K26" t="n">
-        <v>452.9767072372517</v>
+        <v>452.9767072372516</v>
       </c>
       <c r="L26" t="n">
-        <v>614.7623345532866</v>
+        <v>321.5196951805195</v>
       </c>
       <c r="M26" t="n">
-        <v>700.815837567632</v>
+        <v>700.8158375676319</v>
       </c>
       <c r="N26" t="n">
-        <v>556.8354286256975</v>
+        <v>697.3759749990555</v>
       </c>
       <c r="O26" t="n">
         <v>612.8682793203437</v>
       </c>
       <c r="P26" t="n">
-        <v>163.2152567898295</v>
+        <v>485.013964961312</v>
       </c>
       <c r="Q26" t="n">
         <v>286.2235112462791</v>
       </c>
       <c r="R26" t="n">
-        <v>22.43647776080755</v>
+        <v>22.43647776080752</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>137.9131737654266</v>
       </c>
       <c r="K27" t="n">
-        <v>363.6154219823516</v>
+        <v>363.6154219823514</v>
       </c>
       <c r="L27" t="n">
-        <v>180.1101051959319</v>
+        <v>180.1101051959318</v>
       </c>
       <c r="M27" t="n">
-        <v>695.4374533620147</v>
+        <v>229.7323896120147</v>
       </c>
       <c r="N27" t="n">
-        <v>277.2607209025063</v>
+        <v>729.7092835021215</v>
       </c>
       <c r="O27" t="n">
-        <v>206.5925711596875</v>
+        <v>219.8490723100728</v>
       </c>
       <c r="P27" t="n">
-        <v>464.7431707777056</v>
+        <v>464.7431707777055</v>
       </c>
       <c r="Q27" t="n">
         <v>257.4384319557736</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.83937422732305</v>
+        <v>73.83937422732303</v>
       </c>
       <c r="K28" t="n">
-        <v>200.8907926110824</v>
+        <v>200.8907926110823</v>
       </c>
       <c r="L28" t="n">
         <v>290.7277678928186</v>
       </c>
       <c r="M28" t="n">
-        <v>312.6656487873572</v>
+        <v>312.6656487873571</v>
       </c>
       <c r="N28" t="n">
         <v>312.6278340032427</v>
       </c>
       <c r="O28" t="n">
-        <v>278.7072490284664</v>
+        <v>278.7072490284663</v>
       </c>
       <c r="P28" t="n">
         <v>226.3001162520717</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.07671116292271</v>
+        <v>97.07671116292269</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.8602472415547</v>
+        <v>220.8602472415548</v>
       </c>
       <c r="K29" t="n">
-        <v>128.8312946660868</v>
+        <v>452.9767072372517</v>
       </c>
       <c r="L29" t="n">
-        <v>499.0049703404185</v>
+        <v>614.7623345532866</v>
       </c>
       <c r="M29" t="n">
-        <v>700.8158375676318</v>
+        <v>700.815837567632</v>
       </c>
       <c r="N29" t="n">
-        <v>697.3759749990554</v>
+        <v>447.3517111141192</v>
       </c>
       <c r="O29" t="n">
-        <v>612.8682793203436</v>
+        <v>612.8682793203437</v>
       </c>
       <c r="P29" t="n">
-        <v>485.013964961312</v>
+        <v>485.0139649613121</v>
       </c>
       <c r="Q29" t="n">
-        <v>286.223511246279</v>
+        <v>73.90852058637446</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>22.43647776080755</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9131737654265</v>
+        <v>137.9131737654266</v>
       </c>
       <c r="K30" t="n">
-        <v>363.6154219823514</v>
+        <v>363.6154219823516</v>
       </c>
       <c r="L30" t="n">
-        <v>550.9504504993909</v>
+        <v>488.9239491489895</v>
       </c>
       <c r="M30" t="n">
-        <v>351.490919802495</v>
+        <v>229.7323896120148</v>
       </c>
       <c r="N30" t="n">
-        <v>250.3669091585678</v>
+        <v>250.3669091585679</v>
       </c>
       <c r="O30" t="n">
-        <v>206.5925711596873</v>
+        <v>600.4548904364169</v>
       </c>
       <c r="P30" t="n">
-        <v>464.7431707777055</v>
+        <v>464.7431707777056</v>
       </c>
       <c r="Q30" t="n">
-        <v>257.4384319557736</v>
+        <v>47.36114421992454</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.83937422732303</v>
+        <v>73.83937422732305</v>
       </c>
       <c r="K31" t="n">
-        <v>200.8907926110823</v>
+        <v>200.8907926110824</v>
       </c>
       <c r="L31" t="n">
-        <v>290.7277678928185</v>
+        <v>290.7277678928186</v>
       </c>
       <c r="M31" t="n">
-        <v>312.6656487873571</v>
+        <v>312.6656487873572</v>
       </c>
       <c r="N31" t="n">
         <v>312.6278340032427</v>
       </c>
       <c r="O31" t="n">
-        <v>278.7072490284663</v>
+        <v>278.7072490284664</v>
       </c>
       <c r="P31" t="n">
         <v>226.3001162520717</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.07671116292268</v>
+        <v>97.07671116292271</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.8602472415548</v>
+        <v>208.0345261895469</v>
       </c>
       <c r="K32" t="n">
         <v>452.9767072372517</v>
@@ -37075,7 +37075,7 @@
         <v>614.7623345532866</v>
       </c>
       <c r="M32" t="n">
-        <v>450.7915736826969</v>
+        <v>251.3023040747995</v>
       </c>
       <c r="N32" t="n">
         <v>697.3759749990556</v>
@@ -37087,7 +37087,7 @@
         <v>485.0139649613121</v>
       </c>
       <c r="Q32" t="n">
-        <v>73.90852058637446</v>
+        <v>286.2235112462791</v>
       </c>
       <c r="R32" t="n">
         <v>22.43647776080755</v>
@@ -37148,25 +37148,25 @@
         <v>137.9131737654266</v>
       </c>
       <c r="K33" t="n">
-        <v>363.6154219823516</v>
+        <v>99.15018496977294</v>
       </c>
       <c r="L33" t="n">
         <v>550.9504504993911</v>
       </c>
       <c r="M33" t="n">
-        <v>229.7323896120148</v>
+        <v>665.1538388473047</v>
       </c>
       <c r="N33" t="n">
-        <v>250.3669091585679</v>
+        <v>729.7092835021215</v>
       </c>
       <c r="O33" t="n">
-        <v>328.3511013501667</v>
+        <v>206.5925711596875</v>
       </c>
       <c r="P33" t="n">
-        <v>464.7431707777056</v>
+        <v>146.2804021377684</v>
       </c>
       <c r="Q33" t="n">
-        <v>257.4384319557736</v>
+        <v>47.36114421992454</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.83937422732299</v>
+        <v>73.83937422732302</v>
       </c>
       <c r="K34" t="n">
         <v>200.8907926110823</v>
@@ -37236,7 +37236,7 @@
         <v>312.6656487873571</v>
       </c>
       <c r="N34" t="n">
-        <v>312.6278340032426</v>
+        <v>312.6278340032427</v>
       </c>
       <c r="O34" t="n">
         <v>278.7072490284663</v>
@@ -37245,7 +37245,7 @@
         <v>226.3001162520717</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.07671116292265</v>
+        <v>97.07671116292268</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>220.8602472415548</v>
       </c>
       <c r="K35" t="n">
-        <v>371.4376339551563</v>
+        <v>452.9767072372517</v>
       </c>
       <c r="L35" t="n">
         <v>614.7623345532866</v>
@@ -37315,7 +37315,7 @@
         <v>700.815837567632</v>
       </c>
       <c r="N35" t="n">
-        <v>697.3759749990556</v>
+        <v>638.2733794777668</v>
       </c>
       <c r="O35" t="n">
         <v>232.0680980575984</v>
@@ -37327,7 +37327,7 @@
         <v>286.2235112462791</v>
       </c>
       <c r="R35" t="n">
-        <v>22.43647776080755</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9131737654266</v>
+        <v>11.82213842501776</v>
       </c>
       <c r="K36" t="n">
-        <v>363.6154219823516</v>
+        <v>247.3351824589939</v>
       </c>
       <c r="L36" t="n">
-        <v>550.9504504993911</v>
+        <v>180.1101051959319</v>
       </c>
       <c r="M36" t="n">
-        <v>229.7323896120148</v>
+        <v>695.4374533620147</v>
       </c>
       <c r="N36" t="n">
-        <v>250.3669091585679</v>
+        <v>729.7092835021215</v>
       </c>
       <c r="O36" t="n">
-        <v>328.3511013501667</v>
+        <v>206.5925711596875</v>
       </c>
       <c r="P36" t="n">
         <v>464.7431707777056</v>
       </c>
       <c r="Q36" t="n">
-        <v>257.4384319557736</v>
+        <v>47.36114421992454</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.83937422732302</v>
+        <v>73.83937422732301</v>
       </c>
       <c r="K37" t="n">
         <v>200.8907926110823</v>
@@ -37482,7 +37482,7 @@
         <v>226.3001162520717</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.07671116292268</v>
+        <v>97.07671116292266</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>220.8602472415548</v>
       </c>
       <c r="K38" t="n">
-        <v>128.8312946660869</v>
+        <v>452.9767072372517</v>
       </c>
       <c r="L38" t="n">
-        <v>614.7623345532866</v>
+        <v>364.7380706683501</v>
       </c>
       <c r="M38" t="n">
         <v>700.815837567632</v>
@@ -37558,13 +37558,13 @@
         <v>612.8682793203437</v>
       </c>
       <c r="P38" t="n">
-        <v>369.2566007484448</v>
+        <v>485.0139649613121</v>
       </c>
       <c r="Q38" t="n">
-        <v>286.2235112462791</v>
+        <v>73.90852058637446</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>22.43647776080755</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9131737654266</v>
+        <v>11.82213842501776</v>
       </c>
       <c r="K39" t="n">
         <v>363.6154219823516</v>
@@ -37631,16 +37631,16 @@
         <v>229.7323896120148</v>
       </c>
       <c r="N39" t="n">
-        <v>250.3669091585679</v>
+        <v>632.8942117885124</v>
       </c>
       <c r="O39" t="n">
-        <v>328.3511013501667</v>
+        <v>600.4548904364169</v>
       </c>
       <c r="P39" t="n">
-        <v>464.7431707777056</v>
+        <v>146.2804021377684</v>
       </c>
       <c r="Q39" t="n">
-        <v>257.4384319557736</v>
+        <v>47.36114421992454</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.83937422732296</v>
+        <v>73.83937422732312</v>
       </c>
       <c r="K40" t="n">
-        <v>200.8907926110822</v>
+        <v>200.8907926110823</v>
       </c>
       <c r="L40" t="n">
-        <v>290.7277678928198</v>
+        <v>290.7277678928186</v>
       </c>
       <c r="M40" t="n">
-        <v>312.665648787357</v>
+        <v>312.6656487873571</v>
       </c>
       <c r="N40" t="n">
-        <v>312.6278340032426</v>
+        <v>312.6278340032427</v>
       </c>
       <c r="O40" t="n">
         <v>278.7072490284663</v>
       </c>
       <c r="P40" t="n">
-        <v>226.3001162520716</v>
+        <v>226.3001162520717</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.07671116292262</v>
+        <v>97.07671116292266</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>614.7623345532866</v>
       </c>
       <c r="M41" t="n">
-        <v>260.9130607835995</v>
+        <v>251.3023040747995</v>
       </c>
       <c r="N41" t="n">
         <v>697.3759749990556</v>
@@ -37795,13 +37795,13 @@
         <v>612.8682793203437</v>
       </c>
       <c r="P41" t="n">
-        <v>485.0139649613121</v>
+        <v>472.1882439093029</v>
       </c>
       <c r="Q41" t="n">
         <v>286.2235112462791</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>22.43647776080755</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9131737654266</v>
+        <v>11.82213842501776</v>
       </c>
       <c r="K42" t="n">
         <v>363.6154219823516</v>
@@ -37865,19 +37865,19 @@
         <v>550.9504504993911</v>
       </c>
       <c r="M42" t="n">
-        <v>229.7323896120148</v>
+        <v>526.779637175135</v>
       </c>
       <c r="N42" t="n">
-        <v>250.3669091585679</v>
+        <v>729.7092835021215</v>
       </c>
       <c r="O42" t="n">
-        <v>328.3511013501667</v>
+        <v>206.5925711596875</v>
       </c>
       <c r="P42" t="n">
-        <v>464.7431707777056</v>
+        <v>146.2804021377684</v>
       </c>
       <c r="Q42" t="n">
-        <v>257.4384319557736</v>
+        <v>47.36114421992454</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.83937422732299</v>
+        <v>73.83937422732308</v>
       </c>
       <c r="K43" t="n">
-        <v>200.8907926110823</v>
+        <v>200.8907926110824</v>
       </c>
       <c r="L43" t="n">
         <v>290.7277678928186</v>
       </c>
       <c r="M43" t="n">
-        <v>312.6656487873577</v>
+        <v>312.6656487873553</v>
       </c>
       <c r="N43" t="n">
-        <v>312.6278340032426</v>
+        <v>312.6278340032428</v>
       </c>
       <c r="O43" t="n">
-        <v>278.7072490284663</v>
+        <v>278.7072490284664</v>
       </c>
       <c r="P43" t="n">
         <v>226.3001162520717</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.07671116292265</v>
+        <v>97.07671116292273</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,16 +38023,16 @@
         <v>614.7623345532866</v>
       </c>
       <c r="M44" t="n">
-        <v>560.2752911942747</v>
+        <v>700.815837567632</v>
       </c>
       <c r="N44" t="n">
-        <v>697.3759749990556</v>
+        <v>260.0290505870715</v>
       </c>
       <c r="O44" t="n">
-        <v>612.8682793203437</v>
+        <v>587.8759491874862</v>
       </c>
       <c r="P44" t="n">
-        <v>163.2152567898295</v>
+        <v>485.0139649613121</v>
       </c>
       <c r="Q44" t="n">
         <v>286.2235112462791</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9131737654266</v>
+        <v>11.82213842501776</v>
       </c>
       <c r="K45" t="n">
         <v>363.6154219823516</v>
@@ -38105,16 +38105,16 @@
         <v>229.7323896120148</v>
       </c>
       <c r="N45" t="n">
-        <v>250.3669091585679</v>
+        <v>729.7092835021215</v>
       </c>
       <c r="O45" t="n">
-        <v>328.3511013501667</v>
+        <v>503.6398187228078</v>
       </c>
       <c r="P45" t="n">
-        <v>464.7431707777056</v>
+        <v>146.2804021377684</v>
       </c>
       <c r="Q45" t="n">
-        <v>257.4384319557736</v>
+        <v>47.36114421992454</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.83937422732299</v>
+        <v>73.83937422732308</v>
       </c>
       <c r="K46" t="n">
-        <v>200.8907926110823</v>
+        <v>200.8907926110824</v>
       </c>
       <c r="L46" t="n">
         <v>290.7277678928186</v>
       </c>
       <c r="M46" t="n">
-        <v>312.6656487873571</v>
+        <v>312.6656487873553</v>
       </c>
       <c r="N46" t="n">
-        <v>312.6278340032426</v>
+        <v>312.6278340032428</v>
       </c>
       <c r="O46" t="n">
-        <v>278.7072490284663</v>
+        <v>278.7072490284664</v>
       </c>
       <c r="P46" t="n">
         <v>226.3001162520717</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.07671116292265</v>
+        <v>97.07671116292273</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
